--- a/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,22 +632,22 @@
         <v>0.9991398758812248</v>
       </c>
       <c r="E3">
+        <v>0.9991398758812248</v>
+      </c>
+      <c r="F3">
         <v>1.003927596016589</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>1.001306548991344</v>
+      </c>
+      <c r="H3">
+        <v>1.016601303684758</v>
+      </c>
+      <c r="I3">
+        <v>0.9949923467940107</v>
+      </c>
+      <c r="J3">
         <v>0.9952034500988994</v>
-      </c>
-      <c r="G3">
-        <v>1.016601303684758</v>
-      </c>
-      <c r="H3">
-        <v>0.9949923467940107</v>
-      </c>
-      <c r="I3">
-        <v>1.001306548991344</v>
-      </c>
-      <c r="J3">
-        <v>0.9991398758812248</v>
       </c>
       <c r="K3">
         <v>0.9952034500988994</v>
@@ -728,7 +680,7 @@
         <v>1.001861853577804</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -742,22 +694,22 @@
         <v>0.9982507827241464</v>
       </c>
       <c r="E4">
+        <v>0.9982507827241464</v>
+      </c>
+      <c r="F4">
         <v>1.007755284883397</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>1.002549212140393</v>
+      </c>
+      <c r="H4">
+        <v>1.032175895463767</v>
+      </c>
+      <c r="I4">
+        <v>0.9903548263547821</v>
+      </c>
+      <c r="J4">
         <v>0.9903828024716924</v>
-      </c>
-      <c r="G4">
-        <v>1.032175895463767</v>
-      </c>
-      <c r="H4">
-        <v>0.9903548263547821</v>
-      </c>
-      <c r="I4">
-        <v>1.002549212140393</v>
-      </c>
-      <c r="J4">
-        <v>0.9982507827241464</v>
       </c>
       <c r="K4">
         <v>0.9903828024716924</v>
@@ -790,7 +742,7 @@
         <v>1.003578134006363</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,22 +756,22 @@
         <v>0.9958365902654681</v>
       </c>
       <c r="E5">
+        <v>0.9958365902654681</v>
+      </c>
+      <c r="F5">
         <v>1.014045166744097</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>1.004962427841583</v>
+      </c>
+      <c r="H5">
+        <v>1.059555172074749</v>
+      </c>
+      <c r="I5">
+        <v>0.9813828203339319</v>
+      </c>
+      <c r="J5">
         <v>0.9839268131476625</v>
-      </c>
-      <c r="G5">
-        <v>1.059555172074749</v>
-      </c>
-      <c r="H5">
-        <v>0.9813828203339319</v>
-      </c>
-      <c r="I5">
-        <v>1.004962427841583</v>
-      </c>
-      <c r="J5">
-        <v>0.9958365902654681</v>
       </c>
       <c r="K5">
         <v>0.9839268131476625</v>
@@ -852,7 +804,7 @@
         <v>1.006618165067915</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -866,22 +818,22 @@
         <v>0.993014146146607</v>
       </c>
       <c r="E6">
+        <v>0.993014146146607</v>
+      </c>
+      <c r="F6">
         <v>1.020236488528782</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>1.007147745562354</v>
+      </c>
+      <c r="H6">
+        <v>1.086709400789411</v>
+      </c>
+      <c r="I6">
+        <v>0.9726479781467051</v>
+      </c>
+      <c r="J6">
         <v>0.9778213475325859</v>
-      </c>
-      <c r="G6">
-        <v>1.086709400789411</v>
-      </c>
-      <c r="H6">
-        <v>0.9726479781467051</v>
-      </c>
-      <c r="I6">
-        <v>1.007147745562354</v>
-      </c>
-      <c r="J6">
-        <v>0.993014146146607</v>
       </c>
       <c r="K6">
         <v>0.9778213475325859</v>
@@ -890,31 +842,31 @@
         <v>1.020236488528782</v>
       </c>
       <c r="M6">
-        <v>1.006625317337694</v>
+        <v>1.006625317337695</v>
       </c>
       <c r="N6">
-        <v>1.006625317337694</v>
+        <v>1.006625317337695</v>
       </c>
       <c r="O6">
-        <v>0.9952995376073647</v>
+        <v>0.9952995376073649</v>
       </c>
       <c r="P6">
-        <v>0.997023994069325</v>
+        <v>0.9970239940693251</v>
       </c>
       <c r="Q6">
-        <v>0.9970239940693247</v>
+        <v>0.9970239940693251</v>
       </c>
       <c r="R6">
-        <v>0.99222333243514</v>
+        <v>0.9922233324351403</v>
       </c>
       <c r="S6">
-        <v>0.99222333243514</v>
+        <v>0.9922233324351403</v>
       </c>
       <c r="T6">
         <v>1.009596184451074</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000922787876317</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="D7">
         <v>0.9995874138933507</v>
       </c>
       <c r="E7">
-        <v>0.9997437552833986</v>
+        <v>0.9995874138933507</v>
       </c>
       <c r="F7">
-        <v>1.000922787876317</v>
+        <v>0.9997437552833981</v>
       </c>
       <c r="G7">
-        <v>0.9995041637217166</v>
+        <v>1.000081267529456</v>
       </c>
       <c r="H7">
-        <v>0.9997956512877568</v>
+        <v>0.9995041637217169</v>
       </c>
       <c r="I7">
-        <v>1.000081267529456</v>
+        <v>0.9997956512877559</v>
       </c>
       <c r="J7">
-        <v>0.9995874138933507</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="K7">
-        <v>1.000922787876317</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="L7">
-        <v>0.9997437552833986</v>
+        <v>0.9997437552833981</v>
       </c>
       <c r="M7">
-        <v>0.9996655845883746</v>
+        <v>0.9996655845883744</v>
       </c>
       <c r="N7">
-        <v>0.9996655845883746</v>
+        <v>0.9996655845883744</v>
       </c>
       <c r="O7">
-        <v>0.9997089401548354</v>
+        <v>0.9997089401548349</v>
       </c>
       <c r="P7">
         <v>1.000084652351022</v>
@@ -967,16 +919,16 @@
         <v>1.000084652351022</v>
       </c>
       <c r="R7">
-        <v>1.000294186232346</v>
+        <v>1.000294186232345</v>
       </c>
       <c r="S7">
-        <v>1.000294186232346</v>
+        <v>1.000294186232345</v>
       </c>
       <c r="T7">
-        <v>0.9999391732653325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999391732653322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,46 +939,46 @@
         <v>1.001992011192623</v>
       </c>
       <c r="D8">
-        <v>0.9997080448341018</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="E8">
-        <v>0.999254262351184</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="F8">
+        <v>0.9992542623511845</v>
+      </c>
+      <c r="G8">
+        <v>1.000041991324683</v>
+      </c>
+      <c r="H8">
+        <v>0.9986003812442874</v>
+      </c>
+      <c r="I8">
+        <v>0.9998105835141124</v>
+      </c>
+      <c r="J8">
         <v>1.001992011192623</v>
-      </c>
-      <c r="G8">
-        <v>0.9986003812442887</v>
-      </c>
-      <c r="H8">
-        <v>0.999810583514113</v>
-      </c>
-      <c r="I8">
-        <v>1.000041991324683</v>
-      </c>
-      <c r="J8">
-        <v>0.9997080448341018</v>
       </c>
       <c r="K8">
         <v>1.001992011192623</v>
       </c>
       <c r="L8">
-        <v>0.999254262351184</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="M8">
-        <v>0.9994811535926429</v>
+        <v>0.9994811535926427</v>
       </c>
       <c r="N8">
-        <v>0.9994811535926429</v>
+        <v>0.9994811535926427</v>
       </c>
       <c r="O8">
-        <v>0.9995909635664663</v>
+        <v>0.9995909635664658</v>
       </c>
       <c r="P8">
-        <v>1.00031810612597</v>
+        <v>1.000318106125969</v>
       </c>
       <c r="Q8">
-        <v>1.00031810612597</v>
+        <v>1.000318106125969</v>
       </c>
       <c r="R8">
         <v>1.000736582392633</v>
@@ -1035,10 +987,10 @@
         <v>1.000736582392633</v>
       </c>
       <c r="T8">
-        <v>0.9999012124101655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999012124101653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1052,22 +1004,22 @@
         <v>1.001058380476491</v>
       </c>
       <c r="E9">
+        <v>1.001058380476491</v>
+      </c>
+      <c r="F9">
         <v>0.9988436363298488</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0.9997574826505378</v>
+      </c>
+      <c r="H9">
+        <v>0.9978916904206528</v>
+      </c>
+      <c r="I9">
+        <v>1.000322421238126</v>
+      </c>
+      <c r="J9">
         <v>1.002035713308485</v>
-      </c>
-      <c r="G9">
-        <v>0.9978916904206528</v>
-      </c>
-      <c r="H9">
-        <v>1.000322421238126</v>
-      </c>
-      <c r="I9">
-        <v>0.9997574826505375</v>
-      </c>
-      <c r="J9">
-        <v>1.001058380476491</v>
       </c>
       <c r="K9">
         <v>1.002035713308485</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999848874040239</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,22 +1066,22 @@
         <v>1.000883605703395</v>
       </c>
       <c r="E10">
+        <v>1.000883605703395</v>
+      </c>
+      <c r="F10">
         <v>0.9975531715962095</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0.999755793305464</v>
+      </c>
+      <c r="H10">
+        <v>0.9954326985564245</v>
+      </c>
+      <c r="I10">
+        <v>1.000151752779689</v>
+      </c>
+      <c r="J10">
         <v>1.005245962166785</v>
-      </c>
-      <c r="G10">
-        <v>0.9954326985564248</v>
-      </c>
-      <c r="H10">
-        <v>1.000151752779689</v>
-      </c>
-      <c r="I10">
-        <v>0.9997557933054639</v>
-      </c>
-      <c r="J10">
-        <v>1.000883605703395</v>
       </c>
       <c r="K10">
         <v>1.005245962166785</v>
@@ -1138,13 +1090,13 @@
         <v>0.9975531715962095</v>
       </c>
       <c r="M10">
-        <v>0.9992183886498023</v>
+        <v>0.9992183886498021</v>
       </c>
       <c r="N10">
-        <v>0.9992183886498023</v>
+        <v>0.9992183886498021</v>
       </c>
       <c r="O10">
-        <v>0.9995295100264313</v>
+        <v>0.9995295100264312</v>
       </c>
       <c r="P10">
         <v>1.00122757982213</v>
@@ -1159,10 +1111,10 @@
         <v>1.002232175408294</v>
       </c>
       <c r="T10">
-        <v>0.9998371640179947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9998371640179946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1176,22 +1128,22 @@
         <v>1.0051647606829</v>
       </c>
       <c r="E11">
+        <v>1.0051647606829</v>
+      </c>
+      <c r="F11">
         <v>0.9956405053225729</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0.998895993584154</v>
+      </c>
+      <c r="H11">
+        <v>0.9922111817729552</v>
+      </c>
+      <c r="I11">
+        <v>1.001554913489167</v>
+      </c>
+      <c r="J11">
         <v>1.006995995529726</v>
-      </c>
-      <c r="G11">
-        <v>0.9922111817729552</v>
-      </c>
-      <c r="H11">
-        <v>1.001554913489167</v>
-      </c>
-      <c r="I11">
-        <v>0.998895993584154</v>
-      </c>
-      <c r="J11">
-        <v>1.0051647606829</v>
       </c>
       <c r="K11">
         <v>1.006995995529726</v>
@@ -1224,7 +1176,7 @@
         <v>1.000077225063579</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,31 +1184,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9422085480144057</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="D12">
         <v>0.9318562016855172</v>
       </c>
       <c r="E12">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="F12">
         <v>1.039747067715987</v>
       </c>
-      <c r="F12">
-        <v>0.9422085480144057</v>
-      </c>
       <c r="G12">
+        <v>1.011593383523964</v>
+      </c>
+      <c r="H12">
         <v>1.012390764726486</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.9974542226888118</v>
       </c>
-      <c r="I12">
-        <v>1.011593383523964</v>
-      </c>
       <c r="J12">
-        <v>0.9318562016855172</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="K12">
-        <v>0.9422085480144057</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="L12">
         <v>1.039747067715987</v>
@@ -1277,16 +1229,16 @@
         <v>0.9712706058053033</v>
       </c>
       <c r="R12">
-        <v>0.9640050913575789</v>
+        <v>0.9640050913575788</v>
       </c>
       <c r="S12">
-        <v>0.9640050913575789</v>
+        <v>0.9640050913575788</v>
       </c>
       <c r="T12">
         <v>0.989208364725862</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1300,22 +1252,22 @@
         <v>1.067964252920152</v>
       </c>
       <c r="E13">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="F13">
         <v>0.9601667937851358</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <v>0.9890386921676251</v>
+      </c>
+      <c r="H13">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="I13">
+        <v>0.9928450615510304</v>
+      </c>
+      <c r="J13">
         <v>1.059548244205389</v>
-      </c>
-      <c r="G13">
-        <v>1.02319818206806</v>
-      </c>
-      <c r="H13">
-        <v>0.9928450615510306</v>
-      </c>
-      <c r="I13">
-        <v>0.9890386921676251</v>
-      </c>
-      <c r="J13">
-        <v>1.067964252920152</v>
       </c>
       <c r="K13">
         <v>1.059548244205389</v>
@@ -1348,7 +1300,7 @@
         <v>1.015460204449566</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,31 +1311,31 @@
         <v>0.4955235286572381</v>
       </c>
       <c r="D14">
-        <v>2.660839704405877</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="E14">
-        <v>0.6548451648534878</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="F14">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="G14">
+        <v>0.6083880670441053</v>
+      </c>
+      <c r="H14">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="I14">
+        <v>1.818480992269227</v>
+      </c>
+      <c r="J14">
         <v>0.4955235286572381</v>
-      </c>
-      <c r="G14">
-        <v>0.2116844377548642</v>
-      </c>
-      <c r="H14">
-        <v>1.818480992269227</v>
-      </c>
-      <c r="I14">
-        <v>0.6083880670441053</v>
-      </c>
-      <c r="J14">
-        <v>2.660839704405877</v>
       </c>
       <c r="K14">
         <v>0.4955235286572381</v>
       </c>
       <c r="L14">
-        <v>0.6548451648534878</v>
+        <v>0.6548451648534876</v>
       </c>
       <c r="M14">
         <v>1.657842434629683</v>
@@ -1398,7 +1350,7 @@
         <v>1.270402799305534</v>
       </c>
       <c r="Q14">
-        <v>1.270402799305534</v>
+        <v>1.270402799305535</v>
       </c>
       <c r="R14">
         <v>1.07668298164346</v>
@@ -1410,7 +1362,7 @@
         <v>1.0749603158308</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1424,22 +1376,22 @@
         <v>1.268221409307049</v>
       </c>
       <c r="E15">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="F15">
         <v>0.9088917048708907</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>0.9144646330804617</v>
+      </c>
+      <c r="H15">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="I15">
+        <v>1.224819306146259</v>
+      </c>
+      <c r="J15">
         <v>0.9281320838650573</v>
-      </c>
-      <c r="G15">
-        <v>0.6337144484550302</v>
-      </c>
-      <c r="H15">
-        <v>1.224819306146259</v>
-      </c>
-      <c r="I15">
-        <v>0.9144646330804617</v>
-      </c>
-      <c r="J15">
-        <v>1.268221409307049</v>
       </c>
       <c r="K15">
         <v>0.9281320838650573</v>
@@ -1472,7 +1424,7 @@
         <v>0.979707264287458</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002045145213193</v>
+        <v>0.92440126480507</v>
       </c>
       <c r="D16">
-        <v>0.9980676596505662</v>
+        <v>0.9632946337728273</v>
       </c>
       <c r="E16">
-        <v>0.999531028975202</v>
+        <v>0.9632946337728273</v>
       </c>
       <c r="F16">
-        <v>1.002045145213193</v>
+        <v>1.072260243350247</v>
       </c>
       <c r="G16">
-        <v>0.997257158773023</v>
+        <v>1.027983152662155</v>
       </c>
       <c r="H16">
-        <v>0.9999070532092196</v>
+        <v>1.296729117366934</v>
       </c>
       <c r="I16">
-        <v>1.000254951658466</v>
+        <v>0.9023308039212518</v>
       </c>
       <c r="J16">
-        <v>0.9980676596505662</v>
+        <v>0.92440126480507</v>
       </c>
       <c r="K16">
-        <v>1.002045145213193</v>
+        <v>0.92440126480507</v>
       </c>
       <c r="L16">
-        <v>0.999531028975202</v>
+        <v>1.072260243350247</v>
       </c>
       <c r="M16">
-        <v>0.9987993443128841</v>
+        <v>1.017777438561537</v>
       </c>
       <c r="N16">
-        <v>0.9987993443128841</v>
+        <v>1.017777438561537</v>
       </c>
       <c r="O16">
-        <v>0.9991685806116625</v>
+        <v>0.9792952270147754</v>
       </c>
       <c r="P16">
-        <v>0.9998812779463204</v>
+        <v>0.9866520473093815</v>
       </c>
       <c r="Q16">
-        <v>0.9998812779463204</v>
+        <v>0.9866520473093816</v>
       </c>
       <c r="R16">
-        <v>1.000422244763039</v>
+        <v>0.9710893516833037</v>
       </c>
       <c r="S16">
-        <v>1.000422244763039</v>
+        <v>0.9710893516833037</v>
       </c>
       <c r="T16">
-        <v>0.9995104995799452</v>
+        <v>1.031166535979748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.998610900169156</v>
+        <v>0.982776977489332</v>
       </c>
       <c r="D17">
-        <v>1.001452150176409</v>
+        <v>0.9408614468960808</v>
       </c>
       <c r="E17">
-        <v>1.000389675266121</v>
+        <v>0.9408614468960808</v>
       </c>
       <c r="F17">
-        <v>0.998610900169156</v>
+        <v>1.045068022698033</v>
       </c>
       <c r="G17">
-        <v>1.003327437791957</v>
+        <v>1.026011475028101</v>
       </c>
       <c r="H17">
-        <v>0.9996139764632049</v>
+        <v>1.191713095312371</v>
       </c>
       <c r="I17">
-        <v>0.9998819361779488</v>
+        <v>0.9191285727500563</v>
       </c>
       <c r="J17">
-        <v>1.001452150176409</v>
+        <v>0.982776977489332</v>
       </c>
       <c r="K17">
-        <v>0.998610900169156</v>
+        <v>0.982776977489332</v>
       </c>
       <c r="L17">
-        <v>1.000389675266121</v>
+        <v>1.045068022698033</v>
       </c>
       <c r="M17">
-        <v>1.000920912721265</v>
+        <v>0.9929647347970567</v>
       </c>
       <c r="N17">
-        <v>1.000920912721265</v>
+        <v>0.9929647347970567</v>
       </c>
       <c r="O17">
-        <v>1.000485267301912</v>
+        <v>0.9683526807813899</v>
       </c>
       <c r="P17">
-        <v>1.000150908537229</v>
+        <v>0.9895688156944819</v>
       </c>
       <c r="Q17">
-        <v>1.000150908537229</v>
+        <v>0.9895688156944819</v>
       </c>
       <c r="R17">
-        <v>0.9997659064452105</v>
+        <v>0.9878708561431944</v>
       </c>
       <c r="S17">
-        <v>0.9997659064452105</v>
+        <v>0.9878708561431944</v>
       </c>
       <c r="T17">
-        <v>1.000546012674133</v>
+        <v>1.017593265028996</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00306176593806</v>
+        <v>1.097435327764586</v>
       </c>
       <c r="D18">
-        <v>0.9948034582671573</v>
+        <v>0.8988122501503352</v>
       </c>
       <c r="E18">
-        <v>1.000379657911465</v>
+        <v>0.8988122501503352</v>
       </c>
       <c r="F18">
-        <v>1.00306176593806</v>
+        <v>0.9907761779746848</v>
       </c>
       <c r="G18">
-        <v>0.9983095292836703</v>
+        <v>1.021529278125106</v>
       </c>
       <c r="H18">
-        <v>0.9982653648984954</v>
+        <v>0.9822882832789708</v>
       </c>
       <c r="I18">
-        <v>1.001081895490749</v>
+        <v>0.9537324086496095</v>
       </c>
       <c r="J18">
-        <v>0.9948034582671573</v>
+        <v>1.097435327764586</v>
       </c>
       <c r="K18">
-        <v>1.00306176593806</v>
+        <v>1.097435327764586</v>
       </c>
       <c r="L18">
-        <v>1.000379657911465</v>
+        <v>0.9907761779746848</v>
       </c>
       <c r="M18">
-        <v>0.9975915580893109</v>
+        <v>0.94479421406251</v>
       </c>
       <c r="N18">
-        <v>0.9975915580893109</v>
+        <v>0.94479421406251</v>
       </c>
       <c r="O18">
-        <v>0.9978161603590391</v>
+        <v>0.9477736122582098</v>
       </c>
       <c r="P18">
-        <v>0.9994149607055606</v>
+        <v>0.9956745852965353</v>
       </c>
       <c r="Q18">
-        <v>0.9994149607055607</v>
+        <v>0.9956745852965353</v>
       </c>
       <c r="R18">
-        <v>1.000326662013685</v>
+        <v>1.021114770913548</v>
       </c>
       <c r="S18">
-        <v>1.000326662013685</v>
+        <v>1.021114770913548</v>
       </c>
       <c r="T18">
-        <v>0.9993169452982661</v>
+        <v>0.9907622876572152</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="D19">
+        <v>0.8834048959597858</v>
+      </c>
+      <c r="E19">
+        <v>0.8834048959597858</v>
+      </c>
+      <c r="F19">
+        <v>0.9795922879532125</v>
+      </c>
+      <c r="G19">
+        <v>1.024631948885512</v>
+      </c>
+      <c r="H19">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="I19">
+        <v>0.9451748703418016</v>
+      </c>
+      <c r="J19">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="K19">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="L19">
+        <v>0.9795922879532125</v>
+      </c>
+      <c r="M19">
+        <v>0.9314985919564991</v>
+      </c>
+      <c r="N19">
+        <v>0.9314985919564991</v>
+      </c>
+      <c r="O19">
+        <v>0.9360573514182665</v>
+      </c>
+      <c r="P19">
+        <v>0.9995915685775008</v>
+      </c>
+      <c r="Q19">
+        <v>0.9995915685775009</v>
+      </c>
+      <c r="R19">
+        <v>1.033638056888002</v>
+      </c>
+      <c r="S19">
+        <v>1.033638056888002</v>
+      </c>
+      <c r="T19">
+        <v>0.9886865341875118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="D20">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="E20">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="F20">
+        <v>0.999531028975202</v>
+      </c>
+      <c r="G20">
+        <v>1.000254951658466</v>
+      </c>
+      <c r="H20">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="I20">
+        <v>0.9999070532092197</v>
+      </c>
+      <c r="J20">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="K20">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="L20">
+        <v>0.999531028975202</v>
+      </c>
+      <c r="M20">
+        <v>0.998799344312884</v>
+      </c>
+      <c r="N20">
+        <v>0.998799344312884</v>
+      </c>
+      <c r="O20">
+        <v>0.9991685806116625</v>
+      </c>
+      <c r="P20">
+        <v>0.9998812779463201</v>
+      </c>
+      <c r="Q20">
+        <v>0.9998812779463201</v>
+      </c>
+      <c r="R20">
+        <v>1.000422244763038</v>
+      </c>
+      <c r="S20">
+        <v>1.000422244763038</v>
+      </c>
+      <c r="T20">
+        <v>0.9995104995799449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="D21">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="E21">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="F21">
+        <v>1.000389675266121</v>
+      </c>
+      <c r="G21">
+        <v>0.9998819361779484</v>
+      </c>
+      <c r="H21">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="I21">
+        <v>0.9996139764632049</v>
+      </c>
+      <c r="J21">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="K21">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="L21">
+        <v>1.000389675266121</v>
+      </c>
+      <c r="M21">
+        <v>1.000920912721265</v>
+      </c>
+      <c r="N21">
+        <v>1.000920912721265</v>
+      </c>
+      <c r="O21">
+        <v>1.000485267301912</v>
+      </c>
+      <c r="P21">
+        <v>1.000150908537229</v>
+      </c>
+      <c r="Q21">
+        <v>1.000150908537229</v>
+      </c>
+      <c r="R21">
+        <v>0.9997659064452105</v>
+      </c>
+      <c r="S21">
+        <v>0.9997659064452105</v>
+      </c>
+      <c r="T21">
+        <v>1.000546012674133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="D22">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="E22">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="F22">
+        <v>1.000379657911465</v>
+      </c>
+      <c r="G22">
+        <v>1.001081895490749</v>
+      </c>
+      <c r="H22">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="I22">
+        <v>0.9982653648984955</v>
+      </c>
+      <c r="J22">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="K22">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="L22">
+        <v>1.000379657911465</v>
+      </c>
+      <c r="M22">
+        <v>0.9975915580893113</v>
+      </c>
+      <c r="N22">
+        <v>0.9975915580893113</v>
+      </c>
+      <c r="O22">
+        <v>0.9978161603590393</v>
+      </c>
+      <c r="P22">
+        <v>0.9994149607055608</v>
+      </c>
+      <c r="Q22">
+        <v>0.9994149607055608</v>
+      </c>
+      <c r="R22">
+        <v>1.000326662013686</v>
+      </c>
+      <c r="S22">
+        <v>1.000326662013686</v>
+      </c>
+      <c r="T22">
+        <v>0.9993169452982662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.010588409145585</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9818992494382627</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>0.9818992494382627</v>
+      </c>
+      <c r="F23">
         <v>1.000643630454949</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.003404502669475</v>
+      </c>
+      <c r="H23">
+        <v>0.9890637369396993</v>
+      </c>
+      <c r="I23">
+        <v>0.9958661266652012</v>
+      </c>
+      <c r="J23">
         <v>1.010588409145585</v>
       </c>
-      <c r="G19">
-        <v>0.9890637369396994</v>
-      </c>
-      <c r="H19">
-        <v>0.9958661266652012</v>
-      </c>
-      <c r="I19">
-        <v>1.003404502669475</v>
-      </c>
-      <c r="J19">
-        <v>0.9818992494382627</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.010588409145585</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000643630454949</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9912714399466058</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9912714399466058</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9928030021861377</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9977104296795988</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9977104296795988</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000929924546095</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000929924546095</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9969109425521953</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9952034500988994</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="D3">
-        <v>0.9991398758812248</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="E3">
-        <v>0.9991398758812248</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="F3">
-        <v>1.003927596016589</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="G3">
-        <v>1.001306548991344</v>
+        <v>1.025997279884725</v>
       </c>
       <c r="H3">
-        <v>1.016601303684758</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="I3">
-        <v>0.9949923467940107</v>
+        <v>0.9422293634438054</v>
       </c>
       <c r="J3">
-        <v>0.9952034500988994</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="K3">
-        <v>0.9952034500988994</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="L3">
-        <v>1.003927596016589</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="M3">
-        <v>1.001533735948907</v>
+        <v>0.936020149307637</v>
       </c>
       <c r="N3">
-        <v>1.001533735948907</v>
+        <v>0.936020149307637</v>
       </c>
       <c r="O3">
-        <v>0.9993532728972747</v>
+        <v>0.9380898873530265</v>
       </c>
       <c r="P3">
-        <v>0.999423640665571</v>
+        <v>0.9950576550667639</v>
       </c>
       <c r="Q3">
-        <v>0.9994236406655709</v>
+        <v>0.9950576550667639</v>
       </c>
       <c r="R3">
-        <v>0.998368593023903</v>
+        <v>1.024576407946327</v>
       </c>
       <c r="S3">
-        <v>0.998368593023903</v>
+        <v>1.024576407946327</v>
       </c>
       <c r="T3">
-        <v>1.001861853577804</v>
+        <v>0.9904796652887851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9903828024716924</v>
+        <v>1.105970072924897</v>
       </c>
       <c r="D4">
-        <v>0.9982507827241464</v>
+        <v>0.8876250707117065</v>
       </c>
       <c r="E4">
-        <v>0.9982507827241464</v>
+        <v>0.8876250707117065</v>
       </c>
       <c r="F4">
-        <v>1.007755284883397</v>
+        <v>0.9911730038594849</v>
       </c>
       <c r="G4">
-        <v>1.002549212140393</v>
+        <v>1.024209222922101</v>
       </c>
       <c r="H4">
-        <v>1.032175895463767</v>
+        <v>0.9860169714893761</v>
       </c>
       <c r="I4">
-        <v>0.9903548263547821</v>
+        <v>0.9472521505180747</v>
       </c>
       <c r="J4">
-        <v>0.9903828024716924</v>
+        <v>1.105970072924897</v>
       </c>
       <c r="K4">
-        <v>0.9903828024716924</v>
+        <v>1.105970072924897</v>
       </c>
       <c r="L4">
-        <v>1.007755284883397</v>
+        <v>0.9911730038594849</v>
       </c>
       <c r="M4">
-        <v>1.003003033803772</v>
+        <v>0.9393990372855957</v>
       </c>
       <c r="N4">
-        <v>1.003003033803772</v>
+        <v>0.9393990372855957</v>
       </c>
       <c r="O4">
-        <v>0.9987869646541085</v>
+        <v>0.9420167416964219</v>
       </c>
       <c r="P4">
-        <v>0.9987962900264119</v>
+        <v>0.9949227158320294</v>
       </c>
       <c r="Q4">
-        <v>0.9987962900264119</v>
+        <v>0.9949227158320295</v>
       </c>
       <c r="R4">
-        <v>0.9966929181377321</v>
+        <v>1.022684555105246</v>
       </c>
       <c r="S4">
-        <v>0.9966929181377321</v>
+        <v>1.022684555105246</v>
       </c>
       <c r="T4">
-        <v>1.003578134006363</v>
+        <v>0.9903744154042734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9839268131476625</v>
+        <v>1.126946759730458</v>
       </c>
       <c r="D5">
-        <v>0.9958365902654681</v>
+        <v>0.8699751678652311</v>
       </c>
       <c r="E5">
-        <v>0.9958365902654681</v>
+        <v>0.8699751678652311</v>
       </c>
       <c r="F5">
-        <v>1.014045166744097</v>
+        <v>0.9898695333423179</v>
       </c>
       <c r="G5">
-        <v>1.004962427841583</v>
+        <v>1.02910491142857</v>
       </c>
       <c r="H5">
-        <v>1.059555172074749</v>
+        <v>0.9947782629541786</v>
       </c>
       <c r="I5">
-        <v>0.9813828203339319</v>
+        <v>0.9333279751752018</v>
       </c>
       <c r="J5">
-        <v>0.9839268131476625</v>
+        <v>1.126946759730458</v>
       </c>
       <c r="K5">
-        <v>0.9839268131476625</v>
+        <v>1.126946759730458</v>
       </c>
       <c r="L5">
-        <v>1.014045166744097</v>
+        <v>0.9898695333423179</v>
       </c>
       <c r="M5">
-        <v>1.004940878504782</v>
+        <v>0.9299223506037745</v>
       </c>
       <c r="N5">
-        <v>1.004940878504782</v>
+        <v>0.9299223506037745</v>
       </c>
       <c r="O5">
-        <v>0.9970881924478322</v>
+        <v>0.9310575587942503</v>
       </c>
       <c r="P5">
-        <v>0.9979361900524091</v>
+        <v>0.9955971536460023</v>
       </c>
       <c r="Q5">
-        <v>0.9979361900524091</v>
+        <v>0.9955971536460023</v>
       </c>
       <c r="R5">
-        <v>0.9944338458262224</v>
+        <v>1.028434555167116</v>
       </c>
       <c r="S5">
-        <v>0.9944338458262224</v>
+        <v>1.028434555167116</v>
       </c>
       <c r="T5">
-        <v>1.006618165067915</v>
+        <v>0.9906671017493262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9778213475325859</v>
+        <v>1.140096513920455</v>
       </c>
       <c r="D6">
-        <v>0.993014146146607</v>
+        <v>0.8608906572670455</v>
       </c>
       <c r="E6">
-        <v>0.993014146146607</v>
+        <v>0.8608906572670455</v>
       </c>
       <c r="F6">
-        <v>1.020236488528782</v>
+        <v>0.9883259414204554</v>
       </c>
       <c r="G6">
-        <v>1.007147745562354</v>
+        <v>1.031663912159092</v>
       </c>
       <c r="H6">
-        <v>1.086709400789411</v>
+        <v>0.9982120422159092</v>
       </c>
       <c r="I6">
-        <v>0.9726479781467051</v>
+        <v>0.9257747997727279</v>
       </c>
       <c r="J6">
-        <v>0.9778213475325859</v>
+        <v>1.140096513920455</v>
       </c>
       <c r="K6">
-        <v>0.9778213475325859</v>
+        <v>1.140096513920455</v>
       </c>
       <c r="L6">
-        <v>1.020236488528782</v>
+        <v>0.9883259414204554</v>
       </c>
       <c r="M6">
-        <v>1.006625317337695</v>
+        <v>0.9246082993437504</v>
       </c>
       <c r="N6">
-        <v>1.006625317337695</v>
+        <v>0.9246082993437504</v>
       </c>
       <c r="O6">
-        <v>0.9952995376073649</v>
+        <v>0.9249971328200762</v>
       </c>
       <c r="P6">
-        <v>0.9970239940693251</v>
+        <v>0.996437704202652</v>
       </c>
       <c r="Q6">
-        <v>0.9970239940693251</v>
+        <v>0.996437704202652</v>
       </c>
       <c r="R6">
-        <v>0.9922233324351403</v>
+        <v>1.032352406632103</v>
       </c>
       <c r="S6">
-        <v>0.9922233324351403</v>
+        <v>1.032352406632103</v>
       </c>
       <c r="T6">
-        <v>1.009596184451074</v>
+        <v>0.9908273111259475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000922787876316</v>
+        <v>0.8051216750150895</v>
       </c>
       <c r="D7">
-        <v>0.9995874138933507</v>
+        <v>1.03670621238145</v>
       </c>
       <c r="E7">
-        <v>0.9995874138933507</v>
+        <v>1.03670621238145</v>
       </c>
       <c r="F7">
-        <v>0.9997437552833981</v>
+        <v>1.111135846653702</v>
       </c>
       <c r="G7">
-        <v>1.000081267529456</v>
+        <v>1.020680963192117</v>
       </c>
       <c r="H7">
-        <v>0.9995041637217169</v>
+        <v>1.435074842746025</v>
       </c>
       <c r="I7">
-        <v>0.9997956512877559</v>
+        <v>0.9031798888580554</v>
       </c>
       <c r="J7">
-        <v>1.000922787876316</v>
+        <v>0.8051216750150895</v>
       </c>
       <c r="K7">
-        <v>1.000922787876316</v>
+        <v>0.8051216750150895</v>
       </c>
       <c r="L7">
-        <v>0.9997437552833981</v>
+        <v>1.111135846653702</v>
       </c>
       <c r="M7">
-        <v>0.9996655845883744</v>
+        <v>1.073921029517576</v>
       </c>
       <c r="N7">
-        <v>0.9996655845883744</v>
+        <v>1.073921029517576</v>
       </c>
       <c r="O7">
-        <v>0.9997089401548349</v>
+        <v>1.017007315964402</v>
       </c>
       <c r="P7">
-        <v>1.000084652351022</v>
+        <v>0.9843212446834139</v>
       </c>
       <c r="Q7">
-        <v>1.000084652351022</v>
+        <v>0.9843212446834139</v>
       </c>
       <c r="R7">
-        <v>1.000294186232345</v>
+        <v>0.9395213522663327</v>
       </c>
       <c r="S7">
-        <v>1.000294186232345</v>
+        <v>0.9395213522663327</v>
       </c>
       <c r="T7">
-        <v>0.9999391732653322</v>
+        <v>1.051983238141073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001992011192623</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="D8">
-        <v>0.9997080448341008</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="E8">
-        <v>0.9997080448341008</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="F8">
-        <v>0.9992542623511845</v>
+        <v>1.108700854873764</v>
       </c>
       <c r="G8">
-        <v>1.000041991324683</v>
+        <v>1.019836470090189</v>
       </c>
       <c r="H8">
-        <v>0.9986003812442874</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="I8">
-        <v>0.9998105835141124</v>
+        <v>0.9049978411148085</v>
       </c>
       <c r="J8">
-        <v>1.001992011192623</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="K8">
-        <v>1.001992011192623</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="L8">
-        <v>0.9992542623511845</v>
+        <v>1.108700854873764</v>
       </c>
       <c r="M8">
-        <v>0.9994811535926427</v>
+        <v>1.074219689751165</v>
       </c>
       <c r="N8">
-        <v>0.9994811535926427</v>
+        <v>1.074219689751165</v>
       </c>
       <c r="O8">
-        <v>0.9995909635664658</v>
+        <v>1.01781240687238</v>
       </c>
       <c r="P8">
-        <v>1.000318106125969</v>
+        <v>0.9855489138555235</v>
       </c>
       <c r="Q8">
-        <v>1.000318106125969</v>
+        <v>0.9855489138555237</v>
       </c>
       <c r="R8">
-        <v>1.000736582392633</v>
+        <v>0.9412135259077027</v>
       </c>
       <c r="S8">
-        <v>1.000736582392633</v>
+        <v>0.9412135259077027</v>
       </c>
       <c r="T8">
-        <v>0.9999012124101653</v>
+        <v>1.051773343231819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002035713308485</v>
+        <v>0.8121790103281253</v>
       </c>
       <c r="D9">
-        <v>1.001058380476491</v>
+        <v>1.039070135926981</v>
       </c>
       <c r="E9">
-        <v>1.001058380476491</v>
+        <v>1.039070135926981</v>
       </c>
       <c r="F9">
-        <v>0.9988436363298488</v>
+        <v>1.106992686876284</v>
       </c>
       <c r="G9">
-        <v>0.9997574826505378</v>
+        <v>1.019757172508122</v>
       </c>
       <c r="H9">
-        <v>0.9978916904206528</v>
+        <v>1.424530960644704</v>
       </c>
       <c r="I9">
-        <v>1.000322421238126</v>
+        <v>0.9053394671424079</v>
       </c>
       <c r="J9">
-        <v>1.002035713308485</v>
+        <v>0.8121790103281253</v>
       </c>
       <c r="K9">
-        <v>1.002035713308485</v>
+        <v>0.8121790103281253</v>
       </c>
       <c r="L9">
-        <v>0.9988436363298488</v>
+        <v>1.106992686876284</v>
       </c>
       <c r="M9">
-        <v>0.9999510084031702</v>
+        <v>1.073031411401633</v>
       </c>
       <c r="N9">
-        <v>0.9999510084031702</v>
+        <v>1.073031411401633</v>
       </c>
       <c r="O9">
-        <v>1.000074812681489</v>
+        <v>1.017134096648558</v>
       </c>
       <c r="P9">
-        <v>1.000645910038275</v>
+        <v>0.9860806110437969</v>
       </c>
       <c r="Q9">
-        <v>1.000645910038275</v>
+        <v>0.9860806110437969</v>
       </c>
       <c r="R9">
-        <v>1.000993360855828</v>
+        <v>0.942605210864879</v>
       </c>
       <c r="S9">
-        <v>1.000993360855828</v>
+        <v>0.942605210864879</v>
       </c>
       <c r="T9">
-        <v>0.9999848874040239</v>
+        <v>1.051311572237771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005245962166785</v>
+        <v>0.813670548727547</v>
       </c>
       <c r="D10">
-        <v>1.000883605703395</v>
+        <v>1.063422055851712</v>
       </c>
       <c r="E10">
-        <v>1.000883605703395</v>
+        <v>1.063422055851712</v>
       </c>
       <c r="F10">
-        <v>0.9975531715962095</v>
+        <v>1.098308205336999</v>
       </c>
       <c r="G10">
-        <v>0.999755793305464</v>
+        <v>1.013986226587105</v>
       </c>
       <c r="H10">
-        <v>0.9954326985564245</v>
+        <v>1.404705537895376</v>
       </c>
       <c r="I10">
-        <v>1.000151752779689</v>
+        <v>0.9172153642152892</v>
       </c>
       <c r="J10">
-        <v>1.005245962166785</v>
+        <v>0.813670548727547</v>
       </c>
       <c r="K10">
-        <v>1.005245962166785</v>
+        <v>0.813670548727547</v>
       </c>
       <c r="L10">
-        <v>0.9975531715962095</v>
+        <v>1.098308205336999</v>
       </c>
       <c r="M10">
-        <v>0.9992183886498021</v>
+        <v>1.080865130594356</v>
       </c>
       <c r="N10">
-        <v>0.9992183886498021</v>
+        <v>1.080865130594356</v>
       </c>
       <c r="O10">
-        <v>0.9995295100264312</v>
+        <v>1.026315208468</v>
       </c>
       <c r="P10">
-        <v>1.00122757982213</v>
+        <v>0.9918002699720861</v>
       </c>
       <c r="Q10">
-        <v>1.00122757982213</v>
+        <v>0.991800269972086</v>
       </c>
       <c r="R10">
-        <v>1.002232175408294</v>
+        <v>0.9472678396609513</v>
       </c>
       <c r="S10">
-        <v>1.002232175408294</v>
+        <v>0.9472678396609513</v>
       </c>
       <c r="T10">
-        <v>0.9998371640179946</v>
+        <v>1.051884656435671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.006995995529726</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="D11">
-        <v>1.0051647606829</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="E11">
-        <v>1.0051647606829</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="F11">
-        <v>0.9956405053225729</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="G11">
-        <v>0.998895993584154</v>
+        <v>1.001534795298917</v>
       </c>
       <c r="H11">
-        <v>0.9922111817729552</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="I11">
-        <v>1.001554913489167</v>
+        <v>0.9942289856443993</v>
       </c>
       <c r="J11">
-        <v>1.006995995529726</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="K11">
-        <v>1.006995995529726</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="L11">
-        <v>0.9956405053225729</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="M11">
-        <v>1.000402633002736</v>
+        <v>1.001856206871818</v>
       </c>
       <c r="N11">
-        <v>1.000402633002736</v>
+        <v>1.001856206871818</v>
       </c>
       <c r="O11">
-        <v>1.000786726498213</v>
+        <v>0.9993137997960119</v>
       </c>
       <c r="P11">
-        <v>1.002600420511733</v>
+        <v>0.9992053312988546</v>
       </c>
       <c r="Q11">
-        <v>1.002600420511733</v>
+        <v>0.9992053312988546</v>
       </c>
       <c r="R11">
-        <v>1.003699314266231</v>
+        <v>0.9978798935123729</v>
       </c>
       <c r="S11">
-        <v>1.003699314266231</v>
+        <v>0.9978798935123729</v>
       </c>
       <c r="T11">
-        <v>1.000077225063579</v>
+        <v>1.002161434928593</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9422085480144056</v>
+        <v>0.9963765567146228</v>
       </c>
       <c r="D12">
-        <v>0.9318562016855172</v>
+        <v>1.00068296789223</v>
       </c>
       <c r="E12">
-        <v>0.9318562016855172</v>
+        <v>1.00068296789223</v>
       </c>
       <c r="F12">
-        <v>1.039747067715987</v>
+        <v>1.002279891033233</v>
       </c>
       <c r="G12">
-        <v>1.011593383523964</v>
+        <v>1.000516585023109</v>
       </c>
       <c r="H12">
-        <v>1.012390764726486</v>
+        <v>1.009547929279632</v>
       </c>
       <c r="I12">
-        <v>0.9974542226888118</v>
+        <v>0.9976150276254411</v>
       </c>
       <c r="J12">
-        <v>0.9422085480144056</v>
+        <v>0.9963765567146228</v>
       </c>
       <c r="K12">
-        <v>0.9422085480144056</v>
+        <v>0.9963765567146228</v>
       </c>
       <c r="L12">
-        <v>1.039747067715987</v>
+        <v>1.002279891033233</v>
       </c>
       <c r="M12">
-        <v>0.9858016347007522</v>
+        <v>1.001481429462732</v>
       </c>
       <c r="N12">
-        <v>0.9858016347007522</v>
+        <v>1.001481429462732</v>
       </c>
       <c r="O12">
-        <v>0.9896858306967721</v>
+        <v>1.000192628850302</v>
       </c>
       <c r="P12">
-        <v>0.9712706058053033</v>
+        <v>0.999779805213362</v>
       </c>
       <c r="Q12">
-        <v>0.9712706058053033</v>
+        <v>0.9997798052133621</v>
       </c>
       <c r="R12">
-        <v>0.9640050913575788</v>
+        <v>0.9989289930886773</v>
       </c>
       <c r="S12">
-        <v>0.9640050913575788</v>
+        <v>0.9989289930886773</v>
       </c>
       <c r="T12">
-        <v>0.989208364725862</v>
+        <v>1.001169826261378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.059548244205389</v>
+        <v>0.9847337700169437</v>
       </c>
       <c r="D13">
-        <v>1.067964252920152</v>
+        <v>1.010800295415091</v>
       </c>
       <c r="E13">
-        <v>1.067964252920152</v>
+        <v>1.010800295415091</v>
       </c>
       <c r="F13">
-        <v>0.9601667937851358</v>
+        <v>1.006123178922435</v>
       </c>
       <c r="G13">
-        <v>0.9890386921676251</v>
+        <v>0.9997315544401952</v>
       </c>
       <c r="H13">
-        <v>1.02319818206806</v>
+        <v>1.028091807041168</v>
       </c>
       <c r="I13">
-        <v>0.9928450615510304</v>
+        <v>0.99627316524967</v>
       </c>
       <c r="J13">
-        <v>1.059548244205389</v>
+        <v>0.9847337700169437</v>
       </c>
       <c r="K13">
-        <v>1.059548244205389</v>
+        <v>0.9847337700169437</v>
       </c>
       <c r="L13">
-        <v>0.9601667937851358</v>
+        <v>1.006123178922435</v>
       </c>
       <c r="M13">
-        <v>1.014065523352644</v>
+        <v>1.008461737168763</v>
       </c>
       <c r="N13">
-        <v>1.014065523352644</v>
+        <v>1.008461737168763</v>
       </c>
       <c r="O13">
-        <v>1.00699203608544</v>
+        <v>1.004398879862399</v>
       </c>
       <c r="P13">
-        <v>1.029226430303559</v>
+        <v>1.000552414784823</v>
       </c>
       <c r="Q13">
-        <v>1.029226430303559</v>
+        <v>1.000552414784823</v>
       </c>
       <c r="R13">
-        <v>1.036806883779016</v>
+        <v>0.9965977535928534</v>
       </c>
       <c r="S13">
-        <v>1.036806883779016</v>
+        <v>0.9965977535928534</v>
       </c>
       <c r="T13">
-        <v>1.015460204449566</v>
+        <v>1.004292295180917</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4955235286572381</v>
+        <v>0.9877219603166708</v>
       </c>
       <c r="D14">
-        <v>2.660839704405878</v>
+        <v>0.9967761585031834</v>
       </c>
       <c r="E14">
-        <v>2.660839704405878</v>
+        <v>0.9967761585031834</v>
       </c>
       <c r="F14">
-        <v>0.6548451648534876</v>
+        <v>1.010607164423815</v>
       </c>
       <c r="G14">
-        <v>0.6083880670441053</v>
+        <v>1.003734153578526</v>
       </c>
       <c r="H14">
-        <v>0.2116844377548642</v>
+        <v>1.044674839957576</v>
       </c>
       <c r="I14">
-        <v>1.818480992269227</v>
+        <v>0.986092276878039</v>
       </c>
       <c r="J14">
-        <v>0.4955235286572381</v>
+        <v>0.9877219603166708</v>
       </c>
       <c r="K14">
-        <v>0.4955235286572381</v>
+        <v>0.9877219603166708</v>
       </c>
       <c r="L14">
-        <v>0.6548451648534876</v>
+        <v>1.010607164423815</v>
       </c>
       <c r="M14">
-        <v>1.657842434629683</v>
+        <v>1.003691661463499</v>
       </c>
       <c r="N14">
-        <v>1.657842434629683</v>
+        <v>1.003691661463499</v>
       </c>
       <c r="O14">
-        <v>1.711388620509531</v>
+        <v>0.9978251999350123</v>
       </c>
       <c r="P14">
-        <v>1.270402799305534</v>
+        <v>0.9983684277478896</v>
       </c>
       <c r="Q14">
-        <v>1.270402799305535</v>
+        <v>0.9983684277478897</v>
       </c>
       <c r="R14">
-        <v>1.07668298164346</v>
+        <v>0.9957068108900849</v>
       </c>
       <c r="S14">
-        <v>1.07668298164346</v>
+        <v>0.9957068108900849</v>
       </c>
       <c r="T14">
-        <v>1.0749603158308</v>
+        <v>1.004934425609635</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9281320838650573</v>
+        <v>0.9952034500988994</v>
       </c>
       <c r="D15">
-        <v>1.268221409307049</v>
+        <v>0.9991398758812248</v>
       </c>
       <c r="E15">
-        <v>1.268221409307049</v>
+        <v>0.9991398758812248</v>
       </c>
       <c r="F15">
-        <v>0.9088917048708907</v>
+        <v>1.003927596016589</v>
       </c>
       <c r="G15">
-        <v>0.9144646330804617</v>
+        <v>1.001306548991344</v>
       </c>
       <c r="H15">
-        <v>0.6337144484550302</v>
+        <v>1.016601303684758</v>
       </c>
       <c r="I15">
-        <v>1.224819306146259</v>
+        <v>0.9949923467940107</v>
       </c>
       <c r="J15">
-        <v>0.9281320838650573</v>
+        <v>0.9952034500988994</v>
       </c>
       <c r="K15">
-        <v>0.9281320838650573</v>
+        <v>0.9952034500988994</v>
       </c>
       <c r="L15">
-        <v>0.9088917048708907</v>
+        <v>1.003927596016589</v>
       </c>
       <c r="M15">
-        <v>1.08855655708897</v>
+        <v>1.001533735948907</v>
       </c>
       <c r="N15">
-        <v>1.08855655708897</v>
+        <v>1.001533735948907</v>
       </c>
       <c r="O15">
-        <v>1.1339774734414</v>
+        <v>0.9993532728972747</v>
       </c>
       <c r="P15">
-        <v>1.035081732680999</v>
+        <v>0.999423640665571</v>
       </c>
       <c r="Q15">
-        <v>1.035081732680999</v>
+        <v>0.9994236406655709</v>
       </c>
       <c r="R15">
-        <v>1.008344320477014</v>
+        <v>0.998368593023903</v>
       </c>
       <c r="S15">
-        <v>1.008344320477014</v>
+        <v>0.998368593023903</v>
       </c>
       <c r="T15">
-        <v>0.979707264287458</v>
+        <v>1.001861853577804</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.92440126480507</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="D16">
-        <v>0.9632946337728273</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="E16">
-        <v>0.9632946337728273</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="F16">
-        <v>1.072260243350247</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="G16">
-        <v>1.027983152662155</v>
+        <v>1.002549212140393</v>
       </c>
       <c r="H16">
-        <v>1.296729117366934</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="I16">
-        <v>0.9023308039212518</v>
+        <v>0.9903548263547821</v>
       </c>
       <c r="J16">
-        <v>0.92440126480507</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="K16">
-        <v>0.92440126480507</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="L16">
-        <v>1.072260243350247</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="M16">
-        <v>1.017777438561537</v>
+        <v>1.003003033803772</v>
       </c>
       <c r="N16">
-        <v>1.017777438561537</v>
+        <v>1.003003033803772</v>
       </c>
       <c r="O16">
-        <v>0.9792952270147754</v>
+        <v>0.9987869646541085</v>
       </c>
       <c r="P16">
-        <v>0.9866520473093815</v>
+        <v>0.9987962900264119</v>
       </c>
       <c r="Q16">
-        <v>0.9866520473093816</v>
+        <v>0.9987962900264119</v>
       </c>
       <c r="R16">
-        <v>0.9710893516833037</v>
+        <v>0.9966929181377321</v>
       </c>
       <c r="S16">
-        <v>0.9710893516833037</v>
+        <v>0.9966929181377321</v>
       </c>
       <c r="T16">
-        <v>1.031166535979748</v>
+        <v>1.003578134006363</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.982776977489332</v>
+        <v>0.9839268131476625</v>
       </c>
       <c r="D17">
-        <v>0.9408614468960808</v>
+        <v>0.9958365902654681</v>
       </c>
       <c r="E17">
-        <v>0.9408614468960808</v>
+        <v>0.9958365902654681</v>
       </c>
       <c r="F17">
-        <v>1.045068022698033</v>
+        <v>1.014045166744097</v>
       </c>
       <c r="G17">
-        <v>1.026011475028101</v>
+        <v>1.004962427841583</v>
       </c>
       <c r="H17">
-        <v>1.191713095312371</v>
+        <v>1.059555172074749</v>
       </c>
       <c r="I17">
-        <v>0.9191285727500563</v>
+        <v>0.9813828203339319</v>
       </c>
       <c r="J17">
-        <v>0.982776977489332</v>
+        <v>0.9839268131476625</v>
       </c>
       <c r="K17">
-        <v>0.982776977489332</v>
+        <v>0.9839268131476625</v>
       </c>
       <c r="L17">
-        <v>1.045068022698033</v>
+        <v>1.014045166744097</v>
       </c>
       <c r="M17">
-        <v>0.9929647347970567</v>
+        <v>1.004940878504782</v>
       </c>
       <c r="N17">
-        <v>0.9929647347970567</v>
+        <v>1.004940878504782</v>
       </c>
       <c r="O17">
-        <v>0.9683526807813899</v>
+        <v>0.9970881924478322</v>
       </c>
       <c r="P17">
-        <v>0.9895688156944819</v>
+        <v>0.9979361900524091</v>
       </c>
       <c r="Q17">
-        <v>0.9895688156944819</v>
+        <v>0.9979361900524091</v>
       </c>
       <c r="R17">
-        <v>0.9878708561431944</v>
+        <v>0.9944338458262224</v>
       </c>
       <c r="S17">
-        <v>0.9878708561431944</v>
+        <v>0.9944338458262224</v>
       </c>
       <c r="T17">
-        <v>1.017593265028996</v>
+        <v>1.006618165067915</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.097435327764586</v>
+        <v>0.9778213475325859</v>
       </c>
       <c r="D18">
-        <v>0.8988122501503352</v>
+        <v>0.993014146146607</v>
       </c>
       <c r="E18">
-        <v>0.8988122501503352</v>
+        <v>0.993014146146607</v>
       </c>
       <c r="F18">
-        <v>0.9907761779746848</v>
+        <v>1.020236488528782</v>
       </c>
       <c r="G18">
-        <v>1.021529278125106</v>
+        <v>1.007147745562354</v>
       </c>
       <c r="H18">
-        <v>0.9822882832789708</v>
+        <v>1.086709400789411</v>
       </c>
       <c r="I18">
-        <v>0.9537324086496095</v>
+        <v>0.9726479781467051</v>
       </c>
       <c r="J18">
-        <v>1.097435327764586</v>
+        <v>0.9778213475325859</v>
       </c>
       <c r="K18">
-        <v>1.097435327764586</v>
+        <v>0.9778213475325859</v>
       </c>
       <c r="L18">
-        <v>0.9907761779746848</v>
+        <v>1.020236488528782</v>
       </c>
       <c r="M18">
-        <v>0.94479421406251</v>
+        <v>1.006625317337695</v>
       </c>
       <c r="N18">
-        <v>0.94479421406251</v>
+        <v>1.006625317337695</v>
       </c>
       <c r="O18">
-        <v>0.9477736122582098</v>
+        <v>0.9952995376073649</v>
       </c>
       <c r="P18">
-        <v>0.9956745852965353</v>
+        <v>0.9970239940693251</v>
       </c>
       <c r="Q18">
-        <v>0.9956745852965353</v>
+        <v>0.9970239940693251</v>
       </c>
       <c r="R18">
-        <v>1.021114770913548</v>
+        <v>0.9922233324351403</v>
       </c>
       <c r="S18">
-        <v>1.021114770913548</v>
+        <v>0.9922233324351403</v>
       </c>
       <c r="T18">
-        <v>0.9907622876572152</v>
+        <v>1.009596184451074</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.135777521819504</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="D19">
-        <v>0.8834048959597858</v>
+        <v>0.9995874138933507</v>
       </c>
       <c r="E19">
-        <v>0.8834048959597858</v>
+        <v>0.9995874138933507</v>
       </c>
       <c r="F19">
-        <v>0.9795922879532125</v>
+        <v>0.9997437552833981</v>
       </c>
       <c r="G19">
-        <v>1.024631948885512</v>
+        <v>1.000081267529456</v>
       </c>
       <c r="H19">
-        <v>0.9635376801652545</v>
+        <v>0.9995041637217169</v>
       </c>
       <c r="I19">
-        <v>0.9451748703418016</v>
+        <v>0.9997956512877559</v>
       </c>
       <c r="J19">
-        <v>1.135777521819504</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="K19">
-        <v>1.135777521819504</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="L19">
-        <v>0.9795922879532125</v>
+        <v>0.9997437552833981</v>
       </c>
       <c r="M19">
-        <v>0.9314985919564991</v>
+        <v>0.9996655845883744</v>
       </c>
       <c r="N19">
-        <v>0.9314985919564991</v>
+        <v>0.9996655845883744</v>
       </c>
       <c r="O19">
-        <v>0.9360573514182665</v>
+        <v>0.9997089401548349</v>
       </c>
       <c r="P19">
-        <v>0.9995915685775008</v>
+        <v>1.000084652351022</v>
       </c>
       <c r="Q19">
-        <v>0.9995915685775009</v>
+        <v>1.000084652351022</v>
       </c>
       <c r="R19">
-        <v>1.033638056888002</v>
+        <v>1.000294186232345</v>
       </c>
       <c r="S19">
-        <v>1.033638056888002</v>
+        <v>1.000294186232345</v>
       </c>
       <c r="T19">
-        <v>0.9886865341875118</v>
+        <v>0.9999391732653322</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002045145213192</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="D20">
-        <v>0.9980676596505661</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="E20">
-        <v>0.9980676596505661</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="F20">
-        <v>0.999531028975202</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="G20">
-        <v>1.000254951658466</v>
+        <v>1.000041991324683</v>
       </c>
       <c r="H20">
-        <v>0.9972571587730228</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="I20">
-        <v>0.9999070532092197</v>
+        <v>0.9998105835141124</v>
       </c>
       <c r="J20">
-        <v>1.002045145213192</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="K20">
-        <v>1.002045145213192</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="L20">
-        <v>0.999531028975202</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="M20">
-        <v>0.998799344312884</v>
+        <v>0.9994811535926427</v>
       </c>
       <c r="N20">
-        <v>0.998799344312884</v>
+        <v>0.9994811535926427</v>
       </c>
       <c r="O20">
-        <v>0.9991685806116625</v>
+        <v>0.9995909635664658</v>
       </c>
       <c r="P20">
-        <v>0.9998812779463201</v>
+        <v>1.000318106125969</v>
       </c>
       <c r="Q20">
-        <v>0.9998812779463201</v>
+        <v>1.000318106125969</v>
       </c>
       <c r="R20">
-        <v>1.000422244763038</v>
+        <v>1.000736582392633</v>
       </c>
       <c r="S20">
-        <v>1.000422244763038</v>
+        <v>1.000736582392633</v>
       </c>
       <c r="T20">
-        <v>0.9995104995799449</v>
+        <v>0.9999012124101653</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9986109001691559</v>
+        <v>1.002035713308485</v>
       </c>
       <c r="D21">
-        <v>1.001452150176409</v>
+        <v>1.001058380476491</v>
       </c>
       <c r="E21">
-        <v>1.001452150176409</v>
+        <v>1.001058380476491</v>
       </c>
       <c r="F21">
-        <v>1.000389675266121</v>
+        <v>0.9988436363298488</v>
       </c>
       <c r="G21">
-        <v>0.9998819361779484</v>
+        <v>0.9997574826505378</v>
       </c>
       <c r="H21">
-        <v>1.003327437791958</v>
+        <v>0.9978916904206528</v>
       </c>
       <c r="I21">
-        <v>0.9996139764632049</v>
+        <v>1.000322421238126</v>
       </c>
       <c r="J21">
-        <v>0.9986109001691559</v>
+        <v>1.002035713308485</v>
       </c>
       <c r="K21">
-        <v>0.9986109001691559</v>
+        <v>1.002035713308485</v>
       </c>
       <c r="L21">
-        <v>1.000389675266121</v>
+        <v>0.9988436363298488</v>
       </c>
       <c r="M21">
-        <v>1.000920912721265</v>
+        <v>0.9999510084031702</v>
       </c>
       <c r="N21">
-        <v>1.000920912721265</v>
+        <v>0.9999510084031702</v>
       </c>
       <c r="O21">
-        <v>1.000485267301912</v>
+        <v>1.000074812681489</v>
       </c>
       <c r="P21">
-        <v>1.000150908537229</v>
+        <v>1.000645910038275</v>
       </c>
       <c r="Q21">
-        <v>1.000150908537229</v>
+        <v>1.000645910038275</v>
       </c>
       <c r="R21">
-        <v>0.9997659064452105</v>
+        <v>1.000993360855828</v>
       </c>
       <c r="S21">
-        <v>0.9997659064452105</v>
+        <v>1.000993360855828</v>
       </c>
       <c r="T21">
-        <v>1.000546012674133</v>
+        <v>0.9999848874040239</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.00306176593806</v>
+        <v>1.005245962166785</v>
       </c>
       <c r="D22">
-        <v>0.9948034582671573</v>
+        <v>1.000883605703395</v>
       </c>
       <c r="E22">
-        <v>0.9948034582671573</v>
+        <v>1.000883605703395</v>
       </c>
       <c r="F22">
-        <v>1.000379657911465</v>
+        <v>0.9975531715962095</v>
       </c>
       <c r="G22">
-        <v>1.001081895490749</v>
+        <v>0.999755793305464</v>
       </c>
       <c r="H22">
-        <v>0.9983095292836712</v>
+        <v>0.9954326985564245</v>
       </c>
       <c r="I22">
-        <v>0.9982653648984955</v>
+        <v>1.000151752779689</v>
       </c>
       <c r="J22">
-        <v>1.00306176593806</v>
+        <v>1.005245962166785</v>
       </c>
       <c r="K22">
-        <v>1.00306176593806</v>
+        <v>1.005245962166785</v>
       </c>
       <c r="L22">
-        <v>1.000379657911465</v>
+        <v>0.9975531715962095</v>
       </c>
       <c r="M22">
-        <v>0.9975915580893113</v>
+        <v>0.9992183886498021</v>
       </c>
       <c r="N22">
-        <v>0.9975915580893113</v>
+        <v>0.9992183886498021</v>
       </c>
       <c r="O22">
-        <v>0.9978161603590393</v>
+        <v>0.9995295100264312</v>
       </c>
       <c r="P22">
-        <v>0.9994149607055608</v>
+        <v>1.00122757982213</v>
       </c>
       <c r="Q22">
-        <v>0.9994149607055608</v>
+        <v>1.00122757982213</v>
       </c>
       <c r="R22">
-        <v>1.000326662013686</v>
+        <v>1.002232175408294</v>
       </c>
       <c r="S22">
-        <v>1.000326662013686</v>
+        <v>1.002232175408294</v>
       </c>
       <c r="T22">
-        <v>0.9993169452982662</v>
+        <v>0.9998371640179946</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.006995995529726</v>
+      </c>
+      <c r="D23">
+        <v>1.0051647606829</v>
+      </c>
+      <c r="E23">
+        <v>1.0051647606829</v>
+      </c>
+      <c r="F23">
+        <v>0.9956405053225729</v>
+      </c>
+      <c r="G23">
+        <v>0.998895993584154</v>
+      </c>
+      <c r="H23">
+        <v>0.9922111817729552</v>
+      </c>
+      <c r="I23">
+        <v>1.001554913489167</v>
+      </c>
+      <c r="J23">
+        <v>1.006995995529726</v>
+      </c>
+      <c r="K23">
+        <v>1.006995995529726</v>
+      </c>
+      <c r="L23">
+        <v>0.9956405053225729</v>
+      </c>
+      <c r="M23">
+        <v>1.000402633002736</v>
+      </c>
+      <c r="N23">
+        <v>1.000402633002736</v>
+      </c>
+      <c r="O23">
+        <v>1.000786726498213</v>
+      </c>
+      <c r="P23">
+        <v>1.002600420511733</v>
+      </c>
+      <c r="Q23">
+        <v>1.002600420511733</v>
+      </c>
+      <c r="R23">
+        <v>1.003699314266231</v>
+      </c>
+      <c r="S23">
+        <v>1.003699314266231</v>
+      </c>
+      <c r="T23">
+        <v>1.000077225063579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="D24">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="E24">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="F24">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="G24">
+        <v>1.011593383523964</v>
+      </c>
+      <c r="H24">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="I24">
+        <v>0.9974542226888118</v>
+      </c>
+      <c r="J24">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="K24">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="L24">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="M24">
+        <v>0.9858016347007522</v>
+      </c>
+      <c r="N24">
+        <v>0.9858016347007522</v>
+      </c>
+      <c r="O24">
+        <v>0.9896858306967721</v>
+      </c>
+      <c r="P24">
+        <v>0.9712706058053033</v>
+      </c>
+      <c r="Q24">
+        <v>0.9712706058053033</v>
+      </c>
+      <c r="R24">
+        <v>0.9640050913575788</v>
+      </c>
+      <c r="S24">
+        <v>0.9640050913575788</v>
+      </c>
+      <c r="T24">
+        <v>0.989208364725862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="D25">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="E25">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="F25">
+        <v>0.9601667937851358</v>
+      </c>
+      <c r="G25">
+        <v>0.9890386921676251</v>
+      </c>
+      <c r="H25">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="I25">
+        <v>0.9928450615510304</v>
+      </c>
+      <c r="J25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="K25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="L25">
+        <v>0.9601667937851358</v>
+      </c>
+      <c r="M25">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="N25">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="O25">
+        <v>1.00699203608544</v>
+      </c>
+      <c r="P25">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="Q25">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="R25">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="S25">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="T25">
+        <v>1.015460204449566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="D26">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="E26">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="F26">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="G26">
+        <v>0.6083880670441053</v>
+      </c>
+      <c r="H26">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="I26">
+        <v>1.818480992269227</v>
+      </c>
+      <c r="J26">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="K26">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="L26">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="M26">
+        <v>1.657842434629683</v>
+      </c>
+      <c r="N26">
+        <v>1.657842434629683</v>
+      </c>
+      <c r="O26">
+        <v>1.711388620509531</v>
+      </c>
+      <c r="P26">
+        <v>1.270402799305534</v>
+      </c>
+      <c r="Q26">
+        <v>1.270402799305535</v>
+      </c>
+      <c r="R26">
+        <v>1.07668298164346</v>
+      </c>
+      <c r="S26">
+        <v>1.07668298164346</v>
+      </c>
+      <c r="T26">
+        <v>1.0749603158308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="D27">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="E27">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="F27">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="G27">
+        <v>0.9144646330804617</v>
+      </c>
+      <c r="H27">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="I27">
+        <v>1.224819306146259</v>
+      </c>
+      <c r="J27">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="K27">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="L27">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="M27">
+        <v>1.08855655708897</v>
+      </c>
+      <c r="N27">
+        <v>1.08855655708897</v>
+      </c>
+      <c r="O27">
+        <v>1.1339774734414</v>
+      </c>
+      <c r="P27">
+        <v>1.035081732680999</v>
+      </c>
+      <c r="Q27">
+        <v>1.035081732680999</v>
+      </c>
+      <c r="R27">
+        <v>1.008344320477014</v>
+      </c>
+      <c r="S27">
+        <v>1.008344320477014</v>
+      </c>
+      <c r="T27">
+        <v>0.979707264287458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.92440126480507</v>
+      </c>
+      <c r="D28">
+        <v>0.9632946337728273</v>
+      </c>
+      <c r="E28">
+        <v>0.9632946337728273</v>
+      </c>
+      <c r="F28">
+        <v>1.072260243350247</v>
+      </c>
+      <c r="G28">
+        <v>1.027983152662155</v>
+      </c>
+      <c r="H28">
+        <v>1.296729117366934</v>
+      </c>
+      <c r="I28">
+        <v>0.9023308039212518</v>
+      </c>
+      <c r="J28">
+        <v>0.92440126480507</v>
+      </c>
+      <c r="K28">
+        <v>0.92440126480507</v>
+      </c>
+      <c r="L28">
+        <v>1.072260243350247</v>
+      </c>
+      <c r="M28">
+        <v>1.017777438561537</v>
+      </c>
+      <c r="N28">
+        <v>1.017777438561537</v>
+      </c>
+      <c r="O28">
+        <v>0.9792952270147754</v>
+      </c>
+      <c r="P28">
+        <v>0.9866520473093815</v>
+      </c>
+      <c r="Q28">
+        <v>0.9866520473093816</v>
+      </c>
+      <c r="R28">
+        <v>0.9710893516833037</v>
+      </c>
+      <c r="S28">
+        <v>0.9710893516833037</v>
+      </c>
+      <c r="T28">
+        <v>1.031166535979748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.982776977489332</v>
+      </c>
+      <c r="D29">
+        <v>0.9408614468960808</v>
+      </c>
+      <c r="E29">
+        <v>0.9408614468960808</v>
+      </c>
+      <c r="F29">
+        <v>1.045068022698033</v>
+      </c>
+      <c r="G29">
+        <v>1.026011475028101</v>
+      </c>
+      <c r="H29">
+        <v>1.191713095312371</v>
+      </c>
+      <c r="I29">
+        <v>0.9191285727500563</v>
+      </c>
+      <c r="J29">
+        <v>0.982776977489332</v>
+      </c>
+      <c r="K29">
+        <v>0.982776977489332</v>
+      </c>
+      <c r="L29">
+        <v>1.045068022698033</v>
+      </c>
+      <c r="M29">
+        <v>0.9929647347970567</v>
+      </c>
+      <c r="N29">
+        <v>0.9929647347970567</v>
+      </c>
+      <c r="O29">
+        <v>0.9683526807813899</v>
+      </c>
+      <c r="P29">
+        <v>0.9895688156944819</v>
+      </c>
+      <c r="Q29">
+        <v>0.9895688156944819</v>
+      </c>
+      <c r="R29">
+        <v>0.9878708561431944</v>
+      </c>
+      <c r="S29">
+        <v>0.9878708561431944</v>
+      </c>
+      <c r="T29">
+        <v>1.017593265028996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.097435327764586</v>
+      </c>
+      <c r="D30">
+        <v>0.8988122501503352</v>
+      </c>
+      <c r="E30">
+        <v>0.8988122501503352</v>
+      </c>
+      <c r="F30">
+        <v>0.9907761779746848</v>
+      </c>
+      <c r="G30">
+        <v>1.021529278125106</v>
+      </c>
+      <c r="H30">
+        <v>0.9822882832789708</v>
+      </c>
+      <c r="I30">
+        <v>0.9537324086496095</v>
+      </c>
+      <c r="J30">
+        <v>1.097435327764586</v>
+      </c>
+      <c r="K30">
+        <v>1.097435327764586</v>
+      </c>
+      <c r="L30">
+        <v>0.9907761779746848</v>
+      </c>
+      <c r="M30">
+        <v>0.94479421406251</v>
+      </c>
+      <c r="N30">
+        <v>0.94479421406251</v>
+      </c>
+      <c r="O30">
+        <v>0.9477736122582098</v>
+      </c>
+      <c r="P30">
+        <v>0.9956745852965353</v>
+      </c>
+      <c r="Q30">
+        <v>0.9956745852965353</v>
+      </c>
+      <c r="R30">
+        <v>1.021114770913548</v>
+      </c>
+      <c r="S30">
+        <v>1.021114770913548</v>
+      </c>
+      <c r="T30">
+        <v>0.9907622876572152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="D31">
+        <v>0.8834048959597858</v>
+      </c>
+      <c r="E31">
+        <v>0.8834048959597858</v>
+      </c>
+      <c r="F31">
+        <v>0.9795922879532125</v>
+      </c>
+      <c r="G31">
+        <v>1.024631948885512</v>
+      </c>
+      <c r="H31">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="I31">
+        <v>0.9451748703418016</v>
+      </c>
+      <c r="J31">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="K31">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="L31">
+        <v>0.9795922879532125</v>
+      </c>
+      <c r="M31">
+        <v>0.9314985919564991</v>
+      </c>
+      <c r="N31">
+        <v>0.9314985919564991</v>
+      </c>
+      <c r="O31">
+        <v>0.9360573514182665</v>
+      </c>
+      <c r="P31">
+        <v>0.9995915685775008</v>
+      </c>
+      <c r="Q31">
+        <v>0.9995915685775009</v>
+      </c>
+      <c r="R31">
+        <v>1.033638056888002</v>
+      </c>
+      <c r="S31">
+        <v>1.033638056888002</v>
+      </c>
+      <c r="T31">
+        <v>0.9886865341875118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8575404645205478</v>
+      </c>
+      <c r="D32">
+        <v>1.026363887013699</v>
+      </c>
+      <c r="E32">
+        <v>1.026363887013699</v>
+      </c>
+      <c r="F32">
+        <v>1.090327362602739</v>
+      </c>
+      <c r="G32">
+        <v>1.021017286027397</v>
+      </c>
+      <c r="H32">
+        <v>1.382853073068493</v>
+      </c>
+      <c r="I32">
+        <v>0.9034466282191781</v>
+      </c>
+      <c r="J32">
+        <v>0.8575404645205478</v>
+      </c>
+      <c r="K32">
+        <v>0.8575404645205478</v>
+      </c>
+      <c r="L32">
+        <v>1.090327362602739</v>
+      </c>
+      <c r="M32">
+        <v>1.058345624808219</v>
+      </c>
+      <c r="N32">
+        <v>1.058345624808219</v>
+      </c>
+      <c r="O32">
+        <v>1.006712625945205</v>
+      </c>
+      <c r="P32">
+        <v>0.9914105713789952</v>
+      </c>
+      <c r="Q32">
+        <v>0.9914105713789952</v>
+      </c>
+      <c r="R32">
+        <v>0.9579430446643833</v>
+      </c>
+      <c r="S32">
+        <v>0.9579430446643833</v>
+      </c>
+      <c r="T32">
+        <v>1.046924783575342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="D33">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="E33">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="F33">
+        <v>0.7061252994736843</v>
+      </c>
+      <c r="G33">
+        <v>0.8023913536842106</v>
+      </c>
+      <c r="H33">
+        <v>0.3509733176842105</v>
+      </c>
+      <c r="I33">
+        <v>1.409723701052632</v>
+      </c>
+      <c r="J33">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="K33">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="L33">
+        <v>0.7061252994736843</v>
+      </c>
+      <c r="M33">
+        <v>1.239143962368421</v>
+      </c>
+      <c r="N33">
+        <v>1.239143962368421</v>
+      </c>
+      <c r="O33">
+        <v>1.296003875263158</v>
+      </c>
+      <c r="P33">
+        <v>1.17219588</v>
+      </c>
+      <c r="Q33">
+        <v>1.17219588</v>
+      </c>
+      <c r="R33">
+        <v>1.13872183881579</v>
+      </c>
+      <c r="S33">
+        <v>1.13872183881579</v>
+      </c>
+      <c r="T33">
+        <v>1.013279335403509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="D34">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="E34">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="F34">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="G34">
+        <v>1.016213122105263</v>
+      </c>
+      <c r="H34">
+        <v>1.346592761</v>
+      </c>
+      <c r="I34">
+        <v>0.9135578252631577</v>
+      </c>
+      <c r="J34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="K34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="L34">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="M34">
+        <v>1.059227491</v>
+      </c>
+      <c r="N34">
+        <v>1.059227491</v>
+      </c>
+      <c r="O34">
+        <v>1.010670935754386</v>
+      </c>
+      <c r="P34">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="Q34">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="R34">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="S34">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="T34">
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.540006885227403</v>
+      </c>
+      <c r="D35">
+        <v>0.5568387782921786</v>
+      </c>
+      <c r="E35">
+        <v>0.5568387782921786</v>
+      </c>
+      <c r="F35">
+        <v>0.9101208367629778</v>
+      </c>
+      <c r="G35">
+        <v>1.090391600518266</v>
+      </c>
+      <c r="H35">
+        <v>0.8255844820917588</v>
+      </c>
+      <c r="I35">
+        <v>0.7990674361182664</v>
+      </c>
+      <c r="J35">
+        <v>1.540006885227403</v>
+      </c>
+      <c r="K35">
+        <v>1.540006885227403</v>
+      </c>
+      <c r="L35">
+        <v>0.9101208367629778</v>
+      </c>
+      <c r="M35">
+        <v>0.7334798075275782</v>
+      </c>
+      <c r="N35">
+        <v>0.7334798075275782</v>
+      </c>
+      <c r="O35">
+        <v>0.7553423503911411</v>
+      </c>
+      <c r="P35">
+        <v>1.002322166760853</v>
+      </c>
+      <c r="Q35">
+        <v>1.002322166760853</v>
+      </c>
+      <c r="R35">
+        <v>1.136743346377491</v>
+      </c>
+      <c r="S35">
+        <v>1.136743346377491</v>
+      </c>
+      <c r="T35">
+        <v>0.9536683365018086</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="D36">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="E36">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="F36">
+        <v>0.999531028975202</v>
+      </c>
+      <c r="G36">
+        <v>1.000254951658466</v>
+      </c>
+      <c r="H36">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="I36">
+        <v>0.9999070532092197</v>
+      </c>
+      <c r="J36">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="K36">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="L36">
+        <v>0.999531028975202</v>
+      </c>
+      <c r="M36">
+        <v>0.998799344312884</v>
+      </c>
+      <c r="N36">
+        <v>0.998799344312884</v>
+      </c>
+      <c r="O36">
+        <v>0.9991685806116625</v>
+      </c>
+      <c r="P36">
+        <v>0.9998812779463201</v>
+      </c>
+      <c r="Q36">
+        <v>0.9998812779463201</v>
+      </c>
+      <c r="R36">
+        <v>1.000422244763038</v>
+      </c>
+      <c r="S36">
+        <v>1.000422244763038</v>
+      </c>
+      <c r="T36">
+        <v>0.9995104995799449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="D37">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="E37">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="F37">
+        <v>1.000389675266121</v>
+      </c>
+      <c r="G37">
+        <v>0.9998819361779484</v>
+      </c>
+      <c r="H37">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="I37">
+        <v>0.9996139764632049</v>
+      </c>
+      <c r="J37">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="K37">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="L37">
+        <v>1.000389675266121</v>
+      </c>
+      <c r="M37">
+        <v>1.000920912721265</v>
+      </c>
+      <c r="N37">
+        <v>1.000920912721265</v>
+      </c>
+      <c r="O37">
+        <v>1.000485267301912</v>
+      </c>
+      <c r="P37">
+        <v>1.000150908537229</v>
+      </c>
+      <c r="Q37">
+        <v>1.000150908537229</v>
+      </c>
+      <c r="R37">
+        <v>0.9997659064452105</v>
+      </c>
+      <c r="S37">
+        <v>0.9997659064452105</v>
+      </c>
+      <c r="T37">
+        <v>1.000546012674133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="D38">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="E38">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="F38">
+        <v>1.000379657911465</v>
+      </c>
+      <c r="G38">
+        <v>1.001081895490749</v>
+      </c>
+      <c r="H38">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="I38">
+        <v>0.9982653648984955</v>
+      </c>
+      <c r="J38">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="K38">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="L38">
+        <v>1.000379657911465</v>
+      </c>
+      <c r="M38">
+        <v>0.9975915580893113</v>
+      </c>
+      <c r="N38">
+        <v>0.9975915580893113</v>
+      </c>
+      <c r="O38">
+        <v>0.9978161603590393</v>
+      </c>
+      <c r="P38">
+        <v>0.9994149607055608</v>
+      </c>
+      <c r="Q38">
+        <v>0.9994149607055608</v>
+      </c>
+      <c r="R38">
+        <v>1.000326662013686</v>
+      </c>
+      <c r="S38">
+        <v>1.000326662013686</v>
+      </c>
+      <c r="T38">
+        <v>0.9993169452982662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.010588409145585</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9818992494382627</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9818992494382627</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000643630454949</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.003404502669475</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9890637369396993</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9958661266652012</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.010588409145585</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.010588409145585</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000643630454949</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9912714399466058</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9912714399466058</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9928030021861377</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9977104296795988</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9977104296795988</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000929924546095</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000929924546095</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9969109425521953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.088274537966942</v>
+      </c>
+      <c r="D40">
+        <v>0.924062773818321</v>
+      </c>
+      <c r="E40">
+        <v>0.924062773818321</v>
+      </c>
+      <c r="F40">
+        <v>0.9854472633540525</v>
+      </c>
+      <c r="G40">
+        <v>1.01518783347837</v>
+      </c>
+      <c r="H40">
+        <v>0.9678742782455937</v>
+      </c>
+      <c r="I40">
+        <v>0.9678443633687933</v>
+      </c>
+      <c r="J40">
+        <v>1.088274537966942</v>
+      </c>
+      <c r="K40">
+        <v>1.088274537966942</v>
+      </c>
+      <c r="L40">
+        <v>0.9854472633540525</v>
+      </c>
+      <c r="M40">
+        <v>0.9547550185861868</v>
+      </c>
+      <c r="N40">
+        <v>0.9547550185861868</v>
+      </c>
+      <c r="O40">
+        <v>0.9591181335137223</v>
+      </c>
+      <c r="P40">
+        <v>0.9992615250464384</v>
+      </c>
+      <c r="Q40">
+        <v>0.9992615250464384</v>
+      </c>
+      <c r="R40">
+        <v>1.021514778276564</v>
+      </c>
+      <c r="S40">
+        <v>1.021514778276564</v>
+      </c>
+      <c r="T40">
+        <v>0.9914485083720121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.066024137937027</v>
+      </c>
+      <c r="D41">
+        <v>0.7430809549299546</v>
+      </c>
+      <c r="E41">
+        <v>0.7430809549299546</v>
+      </c>
+      <c r="F41">
+        <v>1.062619395112393</v>
+      </c>
+      <c r="G41">
+        <v>1.063615238224612</v>
+      </c>
+      <c r="H41">
+        <v>1.162858102814927</v>
+      </c>
+      <c r="I41">
+        <v>0.8613270227520209</v>
+      </c>
+      <c r="J41">
+        <v>1.066024137937027</v>
+      </c>
+      <c r="K41">
+        <v>1.066024137937027</v>
+      </c>
+      <c r="L41">
+        <v>1.062619395112393</v>
+      </c>
+      <c r="M41">
+        <v>0.9028501750211738</v>
+      </c>
+      <c r="N41">
+        <v>0.9028501750211738</v>
+      </c>
+      <c r="O41">
+        <v>0.8890091242647896</v>
+      </c>
+      <c r="P41">
+        <v>0.957241495993125</v>
+      </c>
+      <c r="Q41">
+        <v>0.957241495993125</v>
+      </c>
+      <c r="R41">
+        <v>0.9844371564791006</v>
+      </c>
+      <c r="S41">
+        <v>0.9844371564791006</v>
+      </c>
+      <c r="T41">
+        <v>0.9932541419618225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.102020361869034</v>
+      </c>
+      <c r="D42">
+        <v>0.6822941804504921</v>
+      </c>
+      <c r="E42">
+        <v>0.6822941804504921</v>
+      </c>
+      <c r="F42">
+        <v>1.076698429804951</v>
+      </c>
+      <c r="G42">
+        <v>1.084094376278424</v>
+      </c>
+      <c r="H42">
+        <v>1.247461525912963</v>
+      </c>
+      <c r="I42">
+        <v>0.8034285124524809</v>
+      </c>
+      <c r="J42">
+        <v>1.102020361869034</v>
+      </c>
+      <c r="K42">
+        <v>1.102020361869034</v>
+      </c>
+      <c r="L42">
+        <v>1.076698429804951</v>
+      </c>
+      <c r="M42">
+        <v>0.8794963051277215</v>
+      </c>
+      <c r="N42">
+        <v>0.8794963051277215</v>
+      </c>
+      <c r="O42">
+        <v>0.8541403742359747</v>
+      </c>
+      <c r="P42">
+        <v>0.9536709907081592</v>
+      </c>
+      <c r="Q42">
+        <v>0.9536709907081592</v>
+      </c>
+      <c r="R42">
+        <v>0.9907583334983779</v>
+      </c>
+      <c r="S42">
+        <v>0.9907583334983779</v>
+      </c>
+      <c r="T42">
+        <v>0.9993328977947241</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9952034500988994</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="D3">
-        <v>0.9991398758812248</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="E3">
-        <v>1.003927596016589</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="F3">
-        <v>0.9952034500988994</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="G3">
-        <v>1.016601303684758</v>
+        <v>1.000041991324683</v>
       </c>
       <c r="H3">
-        <v>0.9949923467940107</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="I3">
-        <v>1.001306548991344</v>
+        <v>0.9998105835141124</v>
       </c>
       <c r="J3">
-        <v>0.9991398758812248</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="K3">
-        <v>0.9952034500988994</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="L3">
-        <v>1.003927596016589</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="M3">
-        <v>1.001533735948907</v>
+        <v>0.9994811535926427</v>
       </c>
       <c r="N3">
-        <v>1.001533735948907</v>
+        <v>0.9994811535926427</v>
       </c>
       <c r="O3">
-        <v>0.9993532728972747</v>
+        <v>0.9995909635664658</v>
       </c>
       <c r="P3">
-        <v>0.999423640665571</v>
+        <v>1.000318106125969</v>
       </c>
       <c r="Q3">
-        <v>0.9994236406655709</v>
+        <v>1.000318106125969</v>
       </c>
       <c r="R3">
-        <v>0.998368593023903</v>
+        <v>1.000736582392633</v>
       </c>
       <c r="S3">
-        <v>0.998368593023903</v>
+        <v>1.000736582392633</v>
       </c>
       <c r="T3">
-        <v>1.001861853577804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999012124101653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9903828024716924</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="D4">
-        <v>0.9982507827241464</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="E4">
-        <v>1.007755284883397</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="F4">
-        <v>0.9903828024716924</v>
+        <v>0.9854472633540525</v>
       </c>
       <c r="G4">
-        <v>1.032175895463767</v>
+        <v>1.01518783347837</v>
       </c>
       <c r="H4">
-        <v>0.9903548263547821</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="I4">
-        <v>1.002549212140393</v>
+        <v>0.9678443633687933</v>
       </c>
       <c r="J4">
-        <v>0.9982507827241464</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="K4">
-        <v>0.9903828024716924</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="L4">
-        <v>1.007755284883397</v>
+        <v>0.9854472633540525</v>
       </c>
       <c r="M4">
-        <v>1.003003033803772</v>
+        <v>0.9547550185861868</v>
       </c>
       <c r="N4">
-        <v>1.003003033803772</v>
+        <v>0.9547550185861868</v>
       </c>
       <c r="O4">
-        <v>0.9987869646541085</v>
+        <v>0.9591181335137223</v>
       </c>
       <c r="P4">
-        <v>0.9987962900264119</v>
+        <v>0.9992615250464384</v>
       </c>
       <c r="Q4">
-        <v>0.9987962900264119</v>
+        <v>0.9992615250464384</v>
       </c>
       <c r="R4">
-        <v>0.9966929181377321</v>
+        <v>1.021514778276564</v>
       </c>
       <c r="S4">
-        <v>0.9966929181377321</v>
+        <v>1.021514778276564</v>
       </c>
       <c r="T4">
-        <v>1.003578134006363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9914485083720121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9839268131476625</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="D5">
-        <v>0.9958365902654681</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="E5">
-        <v>1.014045166744097</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="F5">
-        <v>0.9839268131476625</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="G5">
-        <v>1.059555172074749</v>
+        <v>1.025997279884725</v>
       </c>
       <c r="H5">
-        <v>0.9813828203339319</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="I5">
-        <v>1.004962427841583</v>
+        <v>0.9422293634438054</v>
       </c>
       <c r="J5">
-        <v>0.9958365902654681</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="K5">
-        <v>0.9839268131476625</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="L5">
-        <v>1.014045166744097</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="M5">
-        <v>1.004940878504782</v>
+        <v>0.936020149307637</v>
       </c>
       <c r="N5">
-        <v>1.004940878504782</v>
+        <v>0.936020149307637</v>
       </c>
       <c r="O5">
-        <v>0.9970881924478322</v>
+        <v>0.9380898873530265</v>
       </c>
       <c r="P5">
-        <v>0.9979361900524091</v>
+        <v>0.9950576550667639</v>
       </c>
       <c r="Q5">
-        <v>0.9979361900524091</v>
+        <v>0.9950576550667639</v>
       </c>
       <c r="R5">
-        <v>0.9944338458262224</v>
+        <v>1.024576407946327</v>
       </c>
       <c r="S5">
-        <v>0.9944338458262224</v>
+        <v>1.024576407946327</v>
       </c>
       <c r="T5">
-        <v>1.006618165067915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9904796652887851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9778213475325859</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="D6">
-        <v>0.993014146146607</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="E6">
-        <v>1.020236488528782</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="F6">
-        <v>0.9778213475325859</v>
+        <v>0.9101208367629778</v>
       </c>
       <c r="G6">
-        <v>1.086709400789411</v>
+        <v>1.090391600518266</v>
       </c>
       <c r="H6">
-        <v>0.9726479781467051</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="I6">
-        <v>1.007147745562354</v>
+        <v>0.7990674361182664</v>
       </c>
       <c r="J6">
-        <v>0.993014146146607</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="K6">
-        <v>0.9778213475325859</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="L6">
-        <v>1.020236488528782</v>
+        <v>0.9101208367629778</v>
       </c>
       <c r="M6">
-        <v>1.006625317337694</v>
+        <v>0.7334798075275782</v>
       </c>
       <c r="N6">
-        <v>1.006625317337694</v>
+        <v>0.7334798075275782</v>
       </c>
       <c r="O6">
-        <v>0.9952995376073647</v>
+        <v>0.7553423503911411</v>
       </c>
       <c r="P6">
-        <v>0.997023994069325</v>
+        <v>1.002322166760853</v>
       </c>
       <c r="Q6">
-        <v>0.9970239940693247</v>
+        <v>1.002322166760853</v>
       </c>
       <c r="R6">
-        <v>0.99222333243514</v>
+        <v>1.136743346377491</v>
       </c>
       <c r="S6">
-        <v>0.99222333243514</v>
+        <v>1.136743346377491</v>
       </c>
       <c r="T6">
-        <v>1.009596184451074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9536683365018086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000922787876317</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="D7">
-        <v>0.9995874138933507</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="E7">
-        <v>0.9997437552833986</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="F7">
-        <v>1.000922787876317</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="G7">
-        <v>0.9995041637217166</v>
+        <v>1.001534795298917</v>
       </c>
       <c r="H7">
-        <v>0.9997956512877568</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="I7">
-        <v>1.000081267529456</v>
+        <v>0.9942289856443993</v>
       </c>
       <c r="J7">
-        <v>0.9995874138933507</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="K7">
-        <v>1.000922787876317</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="L7">
-        <v>0.9997437552833986</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="M7">
-        <v>0.9996655845883746</v>
+        <v>1.001856206871818</v>
       </c>
       <c r="N7">
-        <v>0.9996655845883746</v>
+        <v>1.001856206871818</v>
       </c>
       <c r="O7">
-        <v>0.9997089401548354</v>
+        <v>0.9993137997960119</v>
       </c>
       <c r="P7">
-        <v>1.000084652351022</v>
+        <v>0.9992053312988546</v>
       </c>
       <c r="Q7">
-        <v>1.000084652351022</v>
+        <v>0.9992053312988546</v>
       </c>
       <c r="R7">
-        <v>1.000294186232346</v>
+        <v>0.9978798935123729</v>
       </c>
       <c r="S7">
-        <v>1.000294186232346</v>
+        <v>0.9978798935123729</v>
       </c>
       <c r="T7">
-        <v>0.9999391732653325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.002161434928593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001992011192623</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="D8">
-        <v>0.9997080448341018</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="E8">
-        <v>0.999254262351184</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="F8">
-        <v>1.001992011192623</v>
+        <v>1.000389675266121</v>
       </c>
       <c r="G8">
-        <v>0.9986003812442887</v>
+        <v>0.9998819361779484</v>
       </c>
       <c r="H8">
-        <v>0.999810583514113</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="I8">
-        <v>1.000041991324683</v>
+        <v>0.9996139764632049</v>
       </c>
       <c r="J8">
-        <v>0.9997080448341018</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="K8">
-        <v>1.001992011192623</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="L8">
-        <v>0.999254262351184</v>
+        <v>1.000389675266121</v>
       </c>
       <c r="M8">
-        <v>0.9994811535926429</v>
+        <v>1.000920912721265</v>
       </c>
       <c r="N8">
-        <v>0.9994811535926429</v>
+        <v>1.000920912721265</v>
       </c>
       <c r="O8">
-        <v>0.9995909635664663</v>
+        <v>1.000485267301912</v>
       </c>
       <c r="P8">
-        <v>1.00031810612597</v>
+        <v>1.000150908537229</v>
       </c>
       <c r="Q8">
-        <v>1.00031810612597</v>
+        <v>1.000150908537229</v>
       </c>
       <c r="R8">
-        <v>1.000736582392633</v>
+        <v>0.9997659064452105</v>
       </c>
       <c r="S8">
-        <v>1.000736582392633</v>
+        <v>0.9997659064452105</v>
       </c>
       <c r="T8">
-        <v>0.9999012124101655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000546012674133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002035713308485</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="D9">
-        <v>1.001058380476491</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="E9">
-        <v>0.9988436363298488</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="F9">
-        <v>1.002035713308485</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="G9">
-        <v>0.9978916904206528</v>
+        <v>1.002549212140393</v>
       </c>
       <c r="H9">
-        <v>1.000322421238126</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="I9">
-        <v>0.9997574826505375</v>
+        <v>0.9903548263547821</v>
       </c>
       <c r="J9">
-        <v>1.001058380476491</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="K9">
-        <v>1.002035713308485</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="L9">
-        <v>0.9988436363298488</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="M9">
-        <v>0.9999510084031702</v>
+        <v>1.003003033803772</v>
       </c>
       <c r="N9">
-        <v>0.9999510084031702</v>
+        <v>1.003003033803772</v>
       </c>
       <c r="O9">
-        <v>1.000074812681489</v>
+        <v>0.9987869646541085</v>
       </c>
       <c r="P9">
-        <v>1.000645910038275</v>
+        <v>0.9987962900264119</v>
       </c>
       <c r="Q9">
-        <v>1.000645910038275</v>
+        <v>0.9987962900264119</v>
       </c>
       <c r="R9">
-        <v>1.000993360855828</v>
+        <v>0.9966929181377321</v>
       </c>
       <c r="S9">
-        <v>1.000993360855828</v>
+        <v>0.9966929181377321</v>
       </c>
       <c r="T9">
-        <v>0.9999848874040239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.003578134006363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005245962166785</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="D10">
-        <v>1.000883605703395</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="E10">
-        <v>0.9975531715962095</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="F10">
-        <v>1.005245962166785</v>
+        <v>0.904521587379872</v>
       </c>
       <c r="G10">
-        <v>0.9954326985564248</v>
+        <v>1.091486307720141</v>
       </c>
       <c r="H10">
-        <v>1.000151752779689</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="I10">
-        <v>0.9997557933054639</v>
+        <v>0.7953159541758443</v>
       </c>
       <c r="J10">
-        <v>1.000883605703395</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="K10">
-        <v>1.005245962166785</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="L10">
-        <v>0.9975531715962095</v>
+        <v>0.904521587379872</v>
       </c>
       <c r="M10">
-        <v>0.9992183886498023</v>
+        <v>0.7282512169422946</v>
       </c>
       <c r="N10">
-        <v>0.9992183886498023</v>
+        <v>0.7282512169422946</v>
       </c>
       <c r="O10">
-        <v>0.9995295100264313</v>
+        <v>0.7506061293534779</v>
       </c>
       <c r="P10">
-        <v>1.00122757982213</v>
+        <v>1.004698737873823</v>
       </c>
       <c r="Q10">
-        <v>1.00122757982213</v>
+        <v>1.004698737873823</v>
       </c>
       <c r="R10">
-        <v>1.002232175408294</v>
+        <v>1.142922498339587</v>
       </c>
       <c r="S10">
-        <v>1.002232175408294</v>
+        <v>1.142922498339587</v>
       </c>
       <c r="T10">
-        <v>0.9998371640179947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9531079652798429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.006995995529726</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="D11">
-        <v>1.0051647606829</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="E11">
-        <v>0.9956405053225729</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="F11">
-        <v>1.006995995529726</v>
+        <v>1.063113318580429</v>
       </c>
       <c r="G11">
-        <v>0.9922111817729552</v>
+        <v>1.090205769421946</v>
       </c>
       <c r="H11">
-        <v>1.001554913489167</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="I11">
-        <v>0.998895993584154</v>
+        <v>0.8043044929088282</v>
       </c>
       <c r="J11">
-        <v>1.0051647606829</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="K11">
-        <v>1.006995995529726</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="L11">
-        <v>0.9956405053225729</v>
+        <v>1.063113318580429</v>
       </c>
       <c r="M11">
-        <v>1.000402633002736</v>
+        <v>0.844932506629966</v>
       </c>
       <c r="N11">
-        <v>1.000402633002736</v>
+        <v>0.844932506629966</v>
       </c>
       <c r="O11">
-        <v>1.000786726498213</v>
+        <v>0.8313898353895867</v>
       </c>
       <c r="P11">
-        <v>1.002600420511733</v>
+        <v>0.9488960140266455</v>
       </c>
       <c r="Q11">
-        <v>1.002600420511733</v>
+        <v>0.9488960140266455</v>
       </c>
       <c r="R11">
-        <v>1.003699314266231</v>
+        <v>1.000877767724985</v>
       </c>
       <c r="S11">
-        <v>1.003699314266231</v>
+        <v>1.000877767724985</v>
       </c>
       <c r="T11">
-        <v>1.000077225063579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9846594472506448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9422085480144057</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="D12">
-        <v>0.9318562016855172</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="E12">
-        <v>1.039747067715987</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="F12">
-        <v>0.9422085480144057</v>
+        <v>0.9748358865578933</v>
       </c>
       <c r="G12">
-        <v>1.012390764726486</v>
+        <v>1.030430604947368</v>
       </c>
       <c r="H12">
-        <v>0.9974542226888118</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="I12">
-        <v>1.011593383523964</v>
+        <v>0.9323770845263147</v>
       </c>
       <c r="J12">
-        <v>0.9318562016855172</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="K12">
-        <v>0.9422085480144057</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="L12">
-        <v>1.039747067715987</v>
+        <v>0.9748358865578933</v>
       </c>
       <c r="M12">
-        <v>0.9858016347007522</v>
+        <v>0.9146777159484207</v>
       </c>
       <c r="N12">
-        <v>0.9858016347007522</v>
+        <v>0.9146777159484207</v>
       </c>
       <c r="O12">
-        <v>0.9896858306967721</v>
+        <v>0.9205775054743853</v>
       </c>
       <c r="P12">
-        <v>0.9712706058053033</v>
+        <v>0.9991457664568423</v>
       </c>
       <c r="Q12">
-        <v>0.9712706058053033</v>
+        <v>0.9991457664568423</v>
       </c>
       <c r="R12">
-        <v>0.9640050913575789</v>
+        <v>1.041379791711053</v>
       </c>
       <c r="S12">
-        <v>0.9640050913575789</v>
+        <v>1.041379791711053</v>
       </c>
       <c r="T12">
-        <v>0.989208364725862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9857742659733333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.059548244205389</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="D13">
-        <v>1.067964252920152</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="E13">
-        <v>0.9601667937851358</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="F13">
-        <v>1.059548244205389</v>
+        <v>0.9813402454322466</v>
       </c>
       <c r="G13">
-        <v>1.02319818206806</v>
+        <v>0.9814599085420863</v>
       </c>
       <c r="H13">
-        <v>0.9928450615510306</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="I13">
-        <v>0.9890386921676251</v>
+        <v>1.034077375012689</v>
       </c>
       <c r="J13">
-        <v>1.067964252920152</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="K13">
-        <v>1.059548244205389</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="L13">
-        <v>0.9601667937851358</v>
+        <v>0.9813402454322466</v>
       </c>
       <c r="M13">
-        <v>1.014065523352644</v>
+        <v>1.033544113292296</v>
       </c>
       <c r="N13">
-        <v>1.014065523352644</v>
+        <v>1.033544113292296</v>
       </c>
       <c r="O13">
-        <v>1.00699203608544</v>
+        <v>1.033721867199094</v>
       </c>
       <c r="P13">
-        <v>1.029226430303559</v>
+        <v>1.016251470275561</v>
       </c>
       <c r="Q13">
-        <v>1.029226430303559</v>
+        <v>1.016251470275561</v>
       </c>
       <c r="R13">
-        <v>1.036806883779016</v>
+        <v>1.007605148767194</v>
       </c>
       <c r="S13">
-        <v>1.036806883779016</v>
+        <v>1.007605148767194</v>
       </c>
       <c r="T13">
-        <v>1.015460204449566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.006393105487239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4955235286572381</v>
+        <v>1.9813918</v>
       </c>
       <c r="D14">
-        <v>2.660839704405877</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="E14">
-        <v>0.6548451648534878</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="F14">
-        <v>0.4955235286572381</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="G14">
-        <v>0.2116844377548642</v>
+        <v>1.158546599999999</v>
       </c>
       <c r="H14">
-        <v>1.818480992269227</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="I14">
-        <v>0.6083880670441053</v>
+        <v>0.6454245799999989</v>
       </c>
       <c r="J14">
-        <v>2.660839704405877</v>
+        <v>1.9813918</v>
       </c>
       <c r="K14">
-        <v>0.4955235286572381</v>
+        <v>1.9813918</v>
       </c>
       <c r="L14">
-        <v>0.6548451648534878</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="M14">
-        <v>1.657842434629683</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="N14">
-        <v>1.657842434629683</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="O14">
-        <v>1.711388620509531</v>
+        <v>0.5644207333333334</v>
       </c>
       <c r="P14">
-        <v>1.270402799305534</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q14">
-        <v>1.270402799305534</v>
+        <v>1.009743140000001</v>
       </c>
       <c r="R14">
-        <v>1.07668298164346</v>
+        <v>1.252655305</v>
       </c>
       <c r="S14">
-        <v>1.07668298164346</v>
+        <v>1.252655305</v>
       </c>
       <c r="T14">
-        <v>1.0749603158308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.917068298333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9281320838650573</v>
+        <v>0.21885897</v>
       </c>
       <c r="D15">
-        <v>1.268221409307049</v>
+        <v>3.9393531</v>
       </c>
       <c r="E15">
-        <v>0.9088917048708907</v>
+        <v>3.9393531</v>
       </c>
       <c r="F15">
-        <v>0.9281320838650573</v>
+        <v>0.44908907</v>
       </c>
       <c r="G15">
-        <v>0.6337144484550302</v>
+        <v>0.3808422</v>
       </c>
       <c r="H15">
-        <v>1.224819306146259</v>
+        <v>0.054357122</v>
       </c>
       <c r="I15">
-        <v>0.9144646330804617</v>
+        <v>2.1879417</v>
       </c>
       <c r="J15">
-        <v>1.268221409307049</v>
+        <v>0.21885897</v>
       </c>
       <c r="K15">
-        <v>0.9281320838650573</v>
+        <v>0.21885897</v>
       </c>
       <c r="L15">
-        <v>0.9088917048708907</v>
+        <v>0.44908907</v>
       </c>
       <c r="M15">
-        <v>1.08855655708897</v>
+        <v>2.194221085</v>
       </c>
       <c r="N15">
-        <v>1.08855655708897</v>
+        <v>2.194221085</v>
       </c>
       <c r="O15">
-        <v>1.1339774734414</v>
+        <v>2.192127956666667</v>
       </c>
       <c r="P15">
-        <v>1.035081732680999</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="Q15">
-        <v>1.035081732680999</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="R15">
-        <v>1.008344320477014</v>
+        <v>1.2065400275</v>
       </c>
       <c r="S15">
-        <v>1.008344320477014</v>
+        <v>1.2065400275</v>
       </c>
       <c r="T15">
-        <v>0.979707264287458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.205073693666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002045145213193</v>
+        <v>1.9813918</v>
       </c>
       <c r="D16">
-        <v>0.9980676596505662</v>
+        <v>0.21885897</v>
       </c>
       <c r="E16">
-        <v>0.999531028975202</v>
+        <v>0.21885897</v>
       </c>
       <c r="F16">
-        <v>1.002045145213193</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="G16">
-        <v>0.997257158773023</v>
+        <v>1.1585466</v>
       </c>
       <c r="H16">
-        <v>0.9999070532092196</v>
+        <v>0.66920919</v>
       </c>
       <c r="I16">
-        <v>1.000254951658466</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J16">
-        <v>0.9980676596505662</v>
+        <v>1.9813918</v>
       </c>
       <c r="K16">
-        <v>1.002045145213193</v>
+        <v>1.9813918</v>
       </c>
       <c r="L16">
-        <v>0.999531028975202</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M16">
-        <v>0.9987993443128841</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N16">
-        <v>0.9987993443128841</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O16">
-        <v>0.9991685806116625</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P16">
-        <v>0.9998812779463204</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q16">
-        <v>0.9998812779463204</v>
+        <v>1.00974314</v>
       </c>
       <c r="R16">
-        <v>1.000422244763039</v>
+        <v>1.252655305</v>
       </c>
       <c r="S16">
-        <v>1.000422244763039</v>
+        <v>1.252655305</v>
       </c>
       <c r="T16">
-        <v>0.9995104995799452</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.998610900169156</v>
+        <v>0.49191705</v>
       </c>
       <c r="D17">
-        <v>1.001452150176409</v>
+        <v>2.6705054</v>
       </c>
       <c r="E17">
-        <v>1.000389675266121</v>
+        <v>2.6705054</v>
       </c>
       <c r="F17">
-        <v>0.998610900169156</v>
+        <v>0.63251363</v>
       </c>
       <c r="G17">
-        <v>1.003327437791957</v>
+        <v>0.59323659</v>
       </c>
       <c r="H17">
-        <v>0.9996139764632049</v>
+        <v>0.16635643</v>
       </c>
       <c r="I17">
-        <v>0.9998819361779488</v>
+        <v>1.8564204</v>
       </c>
       <c r="J17">
-        <v>1.001452150176409</v>
+        <v>0.49191705</v>
       </c>
       <c r="K17">
-        <v>0.998610900169156</v>
+        <v>0.49191705</v>
       </c>
       <c r="L17">
-        <v>1.000389675266121</v>
+        <v>0.63251363</v>
       </c>
       <c r="M17">
-        <v>1.000920912721265</v>
+        <v>1.651509515</v>
       </c>
       <c r="N17">
-        <v>1.000920912721265</v>
+        <v>1.651509515</v>
       </c>
       <c r="O17">
-        <v>1.000485267301912</v>
+        <v>1.719813143333334</v>
       </c>
       <c r="P17">
-        <v>1.000150908537229</v>
+        <v>1.264978693333333</v>
       </c>
       <c r="Q17">
-        <v>1.000150908537229</v>
+        <v>1.264978693333333</v>
       </c>
       <c r="R17">
-        <v>0.9997659064452105</v>
+        <v>1.0717132825</v>
       </c>
       <c r="S17">
-        <v>0.9997659064452105</v>
+        <v>1.0717132825</v>
       </c>
       <c r="T17">
-        <v>1.000546012674133</v>
+        <v>1.068491583333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00306176593806</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="D18">
-        <v>0.9948034582671573</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="E18">
-        <v>1.000379657911465</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="F18">
-        <v>1.00306176593806</v>
+        <v>1.090327362602739</v>
       </c>
       <c r="G18">
-        <v>0.9983095292836703</v>
+        <v>1.021017286027397</v>
       </c>
       <c r="H18">
-        <v>0.9982653648984954</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="I18">
-        <v>1.001081895490749</v>
+        <v>0.9034466282191781</v>
       </c>
       <c r="J18">
-        <v>0.9948034582671573</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="K18">
-        <v>1.00306176593806</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="L18">
-        <v>1.000379657911465</v>
+        <v>1.090327362602739</v>
       </c>
       <c r="M18">
-        <v>0.9975915580893109</v>
+        <v>1.058345624808219</v>
       </c>
       <c r="N18">
-        <v>0.9975915580893109</v>
+        <v>1.058345624808219</v>
       </c>
       <c r="O18">
-        <v>0.9978161603590391</v>
+        <v>1.006712625945205</v>
       </c>
       <c r="P18">
-        <v>0.9994149607055606</v>
+        <v>0.9914105713789952</v>
       </c>
       <c r="Q18">
-        <v>0.9994149607055607</v>
+        <v>0.9914105713789952</v>
       </c>
       <c r="R18">
-        <v>1.000326662013685</v>
+        <v>0.9579430446643833</v>
       </c>
       <c r="S18">
-        <v>1.000326662013685</v>
+        <v>0.9579430446643833</v>
       </c>
       <c r="T18">
-        <v>0.9993169452982661</v>
+        <v>1.046924783575342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.010588409145585</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="D19">
-        <v>0.9818992494382627</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="E19">
-        <v>1.000643630454949</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="F19">
-        <v>1.010588409145585</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="G19">
-        <v>0.9890637369396994</v>
+        <v>0.8023913536842106</v>
       </c>
       <c r="H19">
-        <v>0.9958661266652012</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="I19">
-        <v>1.003404502669475</v>
+        <v>1.409723701052632</v>
       </c>
       <c r="J19">
-        <v>0.9818992494382627</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="K19">
-        <v>1.010588409145585</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="L19">
-        <v>1.000643630454949</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="M19">
-        <v>0.9912714399466058</v>
+        <v>1.239143962368421</v>
       </c>
       <c r="N19">
-        <v>0.9912714399466058</v>
+        <v>1.239143962368421</v>
       </c>
       <c r="O19">
-        <v>0.9928030021861377</v>
+        <v>1.296003875263158</v>
       </c>
       <c r="P19">
-        <v>0.9977104296795988</v>
+        <v>1.17219588</v>
       </c>
       <c r="Q19">
-        <v>0.9977104296795988</v>
+        <v>1.17219588</v>
       </c>
       <c r="R19">
-        <v>1.000929924546095</v>
+        <v>1.13872183881579</v>
       </c>
       <c r="S19">
-        <v>1.000929924546095</v>
+        <v>1.13872183881579</v>
       </c>
       <c r="T19">
-        <v>0.9969109425521953</v>
+        <v>1.013279335403509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="D20">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="E20">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="F20">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="G20">
+        <v>1.016213122105263</v>
+      </c>
+      <c r="H20">
+        <v>1.346592761</v>
+      </c>
+      <c r="I20">
+        <v>0.9135578252631577</v>
+      </c>
+      <c r="J20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="K20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="L20">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="M20">
+        <v>1.059227491</v>
+      </c>
+      <c r="N20">
+        <v>1.059227491</v>
+      </c>
+      <c r="O20">
+        <v>1.010670935754386</v>
+      </c>
+      <c r="P20">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="Q20">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="R20">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="S20">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="T20">
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="D21">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="E21">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="F21">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="G21">
+        <v>0.6083880670441053</v>
+      </c>
+      <c r="H21">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="I21">
+        <v>1.818480992269227</v>
+      </c>
+      <c r="J21">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="K21">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="L21">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="M21">
+        <v>1.657842434629683</v>
+      </c>
+      <c r="N21">
+        <v>1.657842434629683</v>
+      </c>
+      <c r="O21">
+        <v>1.711388620509531</v>
+      </c>
+      <c r="P21">
+        <v>1.270402799305534</v>
+      </c>
+      <c r="Q21">
+        <v>1.270402799305535</v>
+      </c>
+      <c r="R21">
+        <v>1.07668298164346</v>
+      </c>
+      <c r="S21">
+        <v>1.07668298164346</v>
+      </c>
+      <c r="T21">
+        <v>1.0749603158308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="D22">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="E22">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="F22">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="G22">
+        <v>0.9144646330804617</v>
+      </c>
+      <c r="H22">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="I22">
+        <v>1.224819306146259</v>
+      </c>
+      <c r="J22">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="K22">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="L22">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="M22">
+        <v>1.08855655708897</v>
+      </c>
+      <c r="N22">
+        <v>1.08855655708897</v>
+      </c>
+      <c r="O22">
+        <v>1.1339774734414</v>
+      </c>
+      <c r="P22">
+        <v>1.035081732680999</v>
+      </c>
+      <c r="Q22">
+        <v>1.035081732680999</v>
+      </c>
+      <c r="R22">
+        <v>1.008344320477014</v>
+      </c>
+      <c r="S22">
+        <v>1.008344320477014</v>
+      </c>
+      <c r="T22">
+        <v>0.979707264287458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="D23">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="E23">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="F23">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="G23">
+        <v>1.011593383523964</v>
+      </c>
+      <c r="H23">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="I23">
+        <v>0.9974542226888118</v>
+      </c>
+      <c r="J23">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="K23">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="L23">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="M23">
+        <v>0.9858016347007522</v>
+      </c>
+      <c r="N23">
+        <v>0.9858016347007522</v>
+      </c>
+      <c r="O23">
+        <v>0.9896858306967721</v>
+      </c>
+      <c r="P23">
+        <v>0.9712706058053033</v>
+      </c>
+      <c r="Q23">
+        <v>0.9712706058053033</v>
+      </c>
+      <c r="R23">
+        <v>0.9640050913575788</v>
+      </c>
+      <c r="S23">
+        <v>0.9640050913575788</v>
+      </c>
+      <c r="T23">
+        <v>0.989208364725862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="D24">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="E24">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="F24">
+        <v>0.9601667937851358</v>
+      </c>
+      <c r="G24">
+        <v>0.9890386921676251</v>
+      </c>
+      <c r="H24">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="I24">
+        <v>0.9928450615510304</v>
+      </c>
+      <c r="J24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="K24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="L24">
+        <v>0.9601667937851358</v>
+      </c>
+      <c r="M24">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="N24">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="O24">
+        <v>1.00699203608544</v>
+      </c>
+      <c r="P24">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="Q24">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="R24">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="S24">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="T24">
+        <v>1.015460204449566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="D25">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="E25">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="F25">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="G25">
+        <v>1.254853269454525</v>
+      </c>
+      <c r="H25">
+        <v>2.273757410017424</v>
+      </c>
+      <c r="I25">
+        <v>0.373941515505374</v>
+      </c>
+      <c r="J25">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="K25">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="L25">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="M25">
+        <v>0.7754721730078153</v>
+      </c>
+      <c r="N25">
+        <v>0.7754721730078153</v>
+      </c>
+      <c r="O25">
+        <v>0.6416286205070015</v>
+      </c>
+      <c r="P25">
+        <v>0.8080455503058568</v>
+      </c>
+      <c r="Q25">
+        <v>0.8080455503058568</v>
+      </c>
+      <c r="R25">
+        <v>0.8243322389548775</v>
+      </c>
+      <c r="S25">
+        <v>0.8243322389548775</v>
+      </c>
+      <c r="T25">
+        <v>1.054448140982482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="D26">
+        <v>0.5397908180613789</v>
+      </c>
+      <c r="E26">
+        <v>0.5397908180613789</v>
+      </c>
+      <c r="F26">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="G26">
+        <v>1.102555332185788</v>
+      </c>
+      <c r="H26">
+        <v>0.9754516980295286</v>
+      </c>
+      <c r="I26">
+        <v>0.8176698907503707</v>
+      </c>
+      <c r="J26">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="K26">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="L26">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="M26">
+        <v>0.7938271713071092</v>
+      </c>
+      <c r="N26">
+        <v>0.7938271713071092</v>
+      </c>
+      <c r="O26">
+        <v>0.8017747444548631</v>
+      </c>
+      <c r="P26">
+        <v>0.9412751169117217</v>
+      </c>
+      <c r="Q26">
+        <v>0.9412751169117217</v>
+      </c>
+      <c r="R26">
+        <v>1.014999089714028</v>
+      </c>
+      <c r="S26">
+        <v>1.014999089714028</v>
+      </c>
+      <c r="T26">
+        <v>0.9532503786168087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="D27">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="E27">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="F27">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="G27">
+        <v>1.008794971130202</v>
+      </c>
+      <c r="H27">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="I27">
+        <v>0.9836640882516778</v>
+      </c>
+      <c r="J27">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="K27">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="L27">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="M27">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="N27">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="O27">
+        <v>0.9874973141975545</v>
+      </c>
+      <c r="P27">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="Q27">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="R27">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="S27">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="T27">
+        <v>0.9985586591028334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="D28">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="E28">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="F28">
+        <v>1.020896776568086</v>
+      </c>
+      <c r="G28">
+        <v>0.9881194216601324</v>
+      </c>
+      <c r="H28">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="I28">
+        <v>1.019242279556388</v>
+      </c>
+      <c r="J28">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="K28">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="L28">
+        <v>1.020896776568086</v>
+      </c>
+      <c r="M28">
+        <v>1.048463211762028</v>
+      </c>
+      <c r="N28">
+        <v>1.048463211762028</v>
+      </c>
+      <c r="O28">
+        <v>1.038722901026815</v>
+      </c>
+      <c r="P28">
+        <v>1.003381112438581</v>
+      </c>
+      <c r="Q28">
+        <v>1.003381112438581</v>
+      </c>
+      <c r="R28">
+        <v>0.980840062776857</v>
+      </c>
+      <c r="S28">
+        <v>0.980840062776857</v>
+      </c>
+      <c r="T28">
+        <v>1.012285185220493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8727369923437135</v>
+      </c>
+      <c r="D29">
+        <v>1.309097447581508</v>
+      </c>
+      <c r="E29">
+        <v>1.309097447581508</v>
+      </c>
+      <c r="F29">
+        <v>0.9726590330984959</v>
+      </c>
+      <c r="G29">
+        <v>0.94156790734806</v>
+      </c>
+      <c r="H29">
+        <v>1.085437734799395</v>
+      </c>
+      <c r="I29">
+        <v>1.0792682472701</v>
+      </c>
+      <c r="J29">
+        <v>0.8727369923437135</v>
+      </c>
+      <c r="K29">
+        <v>0.8727369923437135</v>
+      </c>
+      <c r="L29">
+        <v>0.9726590330984959</v>
+      </c>
+      <c r="M29">
+        <v>1.140878240340002</v>
+      </c>
+      <c r="N29">
+        <v>1.140878240340002</v>
+      </c>
+      <c r="O29">
+        <v>1.120341575983368</v>
+      </c>
+      <c r="P29">
+        <v>1.051497824341239</v>
+      </c>
+      <c r="Q29">
+        <v>1.051497824341239</v>
+      </c>
+      <c r="R29">
+        <v>1.006807616341858</v>
+      </c>
+      <c r="S29">
+        <v>1.006807616341858</v>
+      </c>
+      <c r="T29">
+        <v>1.043461227073545</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.088274537966942</v>
+        <v>1.103694516580722</v>
       </c>
       <c r="D4">
-        <v>0.924062773818321</v>
+        <v>0.8802992153299319</v>
       </c>
       <c r="E4">
-        <v>0.924062773818321</v>
+        <v>0.8802992153299319</v>
       </c>
       <c r="F4">
-        <v>0.9854472633540525</v>
+        <v>0.9938876833932523</v>
       </c>
       <c r="G4">
-        <v>1.01518783347837</v>
+        <v>1.025557596263883</v>
       </c>
       <c r="H4">
-        <v>0.9678742782455937</v>
+        <v>0.9881753279078053</v>
       </c>
       <c r="I4">
-        <v>0.9678443633687933</v>
+        <v>0.9457249160829497</v>
       </c>
       <c r="J4">
-        <v>1.088274537966942</v>
+        <v>1.103694516580722</v>
       </c>
       <c r="K4">
-        <v>1.088274537966942</v>
+        <v>1.103694516580722</v>
       </c>
       <c r="L4">
-        <v>0.9854472633540525</v>
+        <v>0.9938876833932523</v>
       </c>
       <c r="M4">
-        <v>0.9547550185861868</v>
+        <v>0.9370934493615921</v>
       </c>
       <c r="N4">
-        <v>0.9547550185861868</v>
+        <v>0.9370934493615921</v>
       </c>
       <c r="O4">
-        <v>0.9591181335137223</v>
+        <v>0.939970604935378</v>
       </c>
       <c r="P4">
-        <v>0.9992615250464384</v>
+        <v>0.9926271384346356</v>
       </c>
       <c r="Q4">
-        <v>0.9992615250464384</v>
+        <v>0.9926271384346355</v>
       </c>
       <c r="R4">
-        <v>1.021514778276564</v>
+        <v>1.020393982971157</v>
       </c>
       <c r="S4">
-        <v>1.021514778276564</v>
+        <v>1.020393982971157</v>
       </c>
       <c r="T4">
-        <v>0.9914485083720121</v>
+        <v>0.9895565425930908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.113132666585018</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="D5">
-        <v>0.8811465573256494</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="E5">
-        <v>0.8811465573256494</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="F5">
-        <v>0.9908937412896246</v>
+        <v>1.108700854873764</v>
       </c>
       <c r="G5">
-        <v>1.025997279884725</v>
+        <v>1.019836470090189</v>
       </c>
       <c r="H5">
-        <v>0.9894783832038891</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="I5">
-        <v>0.9422293634438054</v>
+        <v>0.9049978411148085</v>
       </c>
       <c r="J5">
-        <v>1.113132666585018</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="K5">
-        <v>1.113132666585018</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="L5">
-        <v>0.9908937412896246</v>
+        <v>1.108700854873764</v>
       </c>
       <c r="M5">
-        <v>0.936020149307637</v>
+        <v>1.074219689751165</v>
       </c>
       <c r="N5">
-        <v>0.936020149307637</v>
+        <v>1.074219689751165</v>
       </c>
       <c r="O5">
-        <v>0.9380898873530265</v>
+        <v>1.01781240687238</v>
       </c>
       <c r="P5">
-        <v>0.9950576550667639</v>
+        <v>0.9855489138555235</v>
       </c>
       <c r="Q5">
-        <v>0.9950576550667639</v>
+        <v>0.9855489138555237</v>
       </c>
       <c r="R5">
-        <v>1.024576407946327</v>
+        <v>0.9412135259077027</v>
       </c>
       <c r="S5">
-        <v>1.024576407946327</v>
+        <v>0.9412135259077027</v>
       </c>
       <c r="T5">
-        <v>0.9904796652887851</v>
+        <v>1.051773343231819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.540006885227403</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="D6">
-        <v>0.5568387782921786</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="E6">
-        <v>0.5568387782921786</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="F6">
-        <v>0.9101208367629778</v>
+        <v>0.9854472633540525</v>
       </c>
       <c r="G6">
-        <v>1.090391600518266</v>
+        <v>1.01518783347837</v>
       </c>
       <c r="H6">
-        <v>0.8255844820917588</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="I6">
-        <v>0.7990674361182664</v>
+        <v>0.9678443633687933</v>
       </c>
       <c r="J6">
-        <v>1.540006885227403</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="K6">
-        <v>1.540006885227403</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="L6">
-        <v>0.9101208367629778</v>
+        <v>0.9854472633540525</v>
       </c>
       <c r="M6">
-        <v>0.7334798075275782</v>
+        <v>0.9547550185861868</v>
       </c>
       <c r="N6">
-        <v>0.7334798075275782</v>
+        <v>0.9547550185861868</v>
       </c>
       <c r="O6">
-        <v>0.7553423503911411</v>
+        <v>0.9591181335137223</v>
       </c>
       <c r="P6">
-        <v>1.002322166760853</v>
+        <v>0.9992615250464384</v>
       </c>
       <c r="Q6">
-        <v>1.002322166760853</v>
+        <v>0.9992615250464384</v>
       </c>
       <c r="R6">
-        <v>1.136743346377491</v>
+        <v>1.021514778276564</v>
       </c>
       <c r="S6">
-        <v>1.136743346377491</v>
+        <v>1.021514778276564</v>
       </c>
       <c r="T6">
-        <v>0.9536683365018086</v>
+        <v>0.9914485083720121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9939035801529279</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="D7">
-        <v>0.9989544764831922</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="E7">
-        <v>0.9989544764831922</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="F7">
-        <v>1.004757937260444</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="G7">
-        <v>1.001534795298917</v>
+        <v>1.025997279884725</v>
       </c>
       <c r="H7">
-        <v>1.019588834731677</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="I7">
-        <v>0.9942289856443993</v>
+        <v>0.9422293634438054</v>
       </c>
       <c r="J7">
-        <v>0.9939035801529279</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="K7">
-        <v>0.9939035801529279</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="L7">
-        <v>1.004757937260444</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="M7">
-        <v>1.001856206871818</v>
+        <v>0.936020149307637</v>
       </c>
       <c r="N7">
-        <v>1.001856206871818</v>
+        <v>0.936020149307637</v>
       </c>
       <c r="O7">
-        <v>0.9993137997960119</v>
+        <v>0.9380898873530265</v>
       </c>
       <c r="P7">
-        <v>0.9992053312988546</v>
+        <v>0.9950576550667639</v>
       </c>
       <c r="Q7">
-        <v>0.9992053312988546</v>
+        <v>0.9950576550667639</v>
       </c>
       <c r="R7">
-        <v>0.9978798935123729</v>
+        <v>1.024576407946327</v>
       </c>
       <c r="S7">
-        <v>0.9978798935123729</v>
+        <v>1.024576407946327</v>
       </c>
       <c r="T7">
-        <v>1.002161434928593</v>
+        <v>0.9904796652887851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986109001691559</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="D8">
-        <v>1.001452150176409</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="E8">
-        <v>1.001452150176409</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="F8">
-        <v>1.000389675266121</v>
+        <v>0.9101208367629778</v>
       </c>
       <c r="G8">
-        <v>0.9998819361779484</v>
+        <v>1.090391600518266</v>
       </c>
       <c r="H8">
-        <v>1.003327437791958</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="I8">
-        <v>0.9996139764632049</v>
+        <v>0.7990674361182664</v>
       </c>
       <c r="J8">
-        <v>0.9986109001691559</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="K8">
-        <v>0.9986109001691559</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="L8">
-        <v>1.000389675266121</v>
+        <v>0.9101208367629778</v>
       </c>
       <c r="M8">
-        <v>1.000920912721265</v>
+        <v>0.7334798075275782</v>
       </c>
       <c r="N8">
-        <v>1.000920912721265</v>
+        <v>0.7334798075275782</v>
       </c>
       <c r="O8">
-        <v>1.000485267301912</v>
+        <v>0.7553423503911411</v>
       </c>
       <c r="P8">
-        <v>1.000150908537229</v>
+        <v>1.002322166760853</v>
       </c>
       <c r="Q8">
-        <v>1.000150908537229</v>
+        <v>1.002322166760853</v>
       </c>
       <c r="R8">
-        <v>0.9997659064452105</v>
+        <v>1.136743346377491</v>
       </c>
       <c r="S8">
-        <v>0.9997659064452105</v>
+        <v>1.136743346377491</v>
       </c>
       <c r="T8">
-        <v>1.000546012674133</v>
+        <v>0.9536683365018086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9903828024716924</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="D9">
-        <v>0.9982507827241464</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="E9">
-        <v>0.9982507827241464</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="F9">
-        <v>1.007755284883397</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="G9">
-        <v>1.002549212140393</v>
+        <v>1.001534795298917</v>
       </c>
       <c r="H9">
-        <v>1.032175895463767</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="I9">
-        <v>0.9903548263547821</v>
+        <v>0.9942289856443993</v>
       </c>
       <c r="J9">
-        <v>0.9903828024716924</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="K9">
-        <v>0.9903828024716924</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="L9">
-        <v>1.007755284883397</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="M9">
-        <v>1.003003033803772</v>
+        <v>1.001856206871818</v>
       </c>
       <c r="N9">
-        <v>1.003003033803772</v>
+        <v>1.001856206871818</v>
       </c>
       <c r="O9">
-        <v>0.9987869646541085</v>
+        <v>0.9993137997960119</v>
       </c>
       <c r="P9">
-        <v>0.9987962900264119</v>
+        <v>0.9992053312988546</v>
       </c>
       <c r="Q9">
-        <v>0.9987962900264119</v>
+        <v>0.9992053312988546</v>
       </c>
       <c r="R9">
-        <v>0.9966929181377321</v>
+        <v>0.9978798935123729</v>
       </c>
       <c r="S9">
-        <v>0.9966929181377321</v>
+        <v>0.9978798935123729</v>
       </c>
       <c r="T9">
-        <v>1.003578134006363</v>
+        <v>1.002161434928593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.557593779736879</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="D10">
-        <v>0.5519808465047171</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="E10">
-        <v>0.5519808465047171</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="F10">
-        <v>0.904521587379872</v>
+        <v>1.000389675266121</v>
       </c>
       <c r="G10">
-        <v>1.091486307720141</v>
+        <v>0.9998819361779484</v>
       </c>
       <c r="H10">
-        <v>0.8177493161616026</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="I10">
-        <v>0.7953159541758443</v>
+        <v>0.9996139764632049</v>
       </c>
       <c r="J10">
-        <v>1.557593779736879</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="K10">
-        <v>1.557593779736879</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="L10">
-        <v>0.904521587379872</v>
+        <v>1.000389675266121</v>
       </c>
       <c r="M10">
-        <v>0.7282512169422946</v>
+        <v>1.000920912721265</v>
       </c>
       <c r="N10">
-        <v>0.7282512169422946</v>
+        <v>1.000920912721265</v>
       </c>
       <c r="O10">
-        <v>0.7506061293534779</v>
+        <v>1.000485267301912</v>
       </c>
       <c r="P10">
-        <v>1.004698737873823</v>
+        <v>1.000150908537229</v>
       </c>
       <c r="Q10">
-        <v>1.004698737873823</v>
+        <v>1.000150908537229</v>
       </c>
       <c r="R10">
-        <v>1.142922498339587</v>
+        <v>0.9997659064452105</v>
       </c>
       <c r="S10">
-        <v>1.142922498339587</v>
+        <v>0.9997659064452105</v>
       </c>
       <c r="T10">
-        <v>0.9531079652798429</v>
+        <v>1.000546012674133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.156823028820005</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="D11">
-        <v>0.6267516946795032</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="E11">
-        <v>0.6267516946795032</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="F11">
-        <v>1.063113318580429</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="G11">
-        <v>1.090205769421946</v>
+        <v>1.002549212140393</v>
       </c>
       <c r="H11">
-        <v>1.166758379093158</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="I11">
-        <v>0.8043044929088282</v>
+        <v>0.9903548263547821</v>
       </c>
       <c r="J11">
-        <v>1.156823028820005</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="K11">
-        <v>1.156823028820005</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="L11">
-        <v>1.063113318580429</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="M11">
-        <v>0.844932506629966</v>
+        <v>1.003003033803772</v>
       </c>
       <c r="N11">
-        <v>0.844932506629966</v>
+        <v>1.003003033803772</v>
       </c>
       <c r="O11">
-        <v>0.8313898353895867</v>
+        <v>0.9987869646541085</v>
       </c>
       <c r="P11">
-        <v>0.9488960140266455</v>
+        <v>0.9987962900264119</v>
       </c>
       <c r="Q11">
-        <v>0.9488960140266455</v>
+        <v>0.9987962900264119</v>
       </c>
       <c r="R11">
-        <v>1.000877767724985</v>
+        <v>0.9966929181377321</v>
       </c>
       <c r="S11">
-        <v>1.000877767724985</v>
+        <v>0.9966929181377321</v>
       </c>
       <c r="T11">
-        <v>0.9846594472506448</v>
+        <v>1.003578134006363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.168081867473685</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="D12">
-        <v>0.8545195453389481</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="E12">
-        <v>0.8545195453389481</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="F12">
-        <v>0.9748358865578933</v>
+        <v>0.904521587379872</v>
       </c>
       <c r="G12">
-        <v>1.030430604947368</v>
+        <v>1.091486307720141</v>
       </c>
       <c r="H12">
-        <v>0.9544006069957901</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="I12">
-        <v>0.9323770845263147</v>
+        <v>0.7953159541758443</v>
       </c>
       <c r="J12">
-        <v>1.168081867473685</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="K12">
-        <v>1.168081867473685</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="L12">
-        <v>0.9748358865578933</v>
+        <v>0.904521587379872</v>
       </c>
       <c r="M12">
-        <v>0.9146777159484207</v>
+        <v>0.7282512169422946</v>
       </c>
       <c r="N12">
-        <v>0.9146777159484207</v>
+        <v>0.7282512169422946</v>
       </c>
       <c r="O12">
-        <v>0.9205775054743853</v>
+        <v>0.7506061293534779</v>
       </c>
       <c r="P12">
-        <v>0.9991457664568423</v>
+        <v>1.004698737873823</v>
       </c>
       <c r="Q12">
-        <v>0.9991457664568423</v>
+        <v>1.004698737873823</v>
       </c>
       <c r="R12">
-        <v>1.041379791711053</v>
+        <v>1.142922498339587</v>
       </c>
       <c r="S12">
-        <v>1.041379791711053</v>
+        <v>1.142922498339587</v>
       </c>
       <c r="T12">
-        <v>0.9857742659733333</v>
+        <v>0.9531079652798429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9816661842420923</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="D13">
-        <v>1.085747981152344</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="E13">
-        <v>1.085747981152344</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="F13">
-        <v>0.9813402454322466</v>
+        <v>1.063113318580429</v>
       </c>
       <c r="G13">
-        <v>0.9814599085420863</v>
+        <v>1.090205769421946</v>
       </c>
       <c r="H13">
-        <v>0.9740669385419765</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="I13">
-        <v>1.034077375012689</v>
+        <v>0.8043044929088282</v>
       </c>
       <c r="J13">
-        <v>0.9816661842420923</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="K13">
-        <v>0.9816661842420923</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="L13">
-        <v>0.9813402454322466</v>
+        <v>1.063113318580429</v>
       </c>
       <c r="M13">
-        <v>1.033544113292296</v>
+        <v>0.844932506629966</v>
       </c>
       <c r="N13">
-        <v>1.033544113292296</v>
+        <v>0.844932506629966</v>
       </c>
       <c r="O13">
-        <v>1.033721867199094</v>
+        <v>0.8313898353895867</v>
       </c>
       <c r="P13">
-        <v>1.016251470275561</v>
+        <v>0.9488960140266455</v>
       </c>
       <c r="Q13">
-        <v>1.016251470275561</v>
+        <v>0.9488960140266455</v>
       </c>
       <c r="R13">
-        <v>1.007605148767194</v>
+        <v>1.000877767724985</v>
       </c>
       <c r="S13">
-        <v>1.007605148767194</v>
+        <v>1.000877767724985</v>
       </c>
       <c r="T13">
-        <v>1.006393105487239</v>
+        <v>0.9846594472506448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.9813918</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="D14">
-        <v>0.2188589699999998</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="E14">
-        <v>0.2188589699999998</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="F14">
-        <v>0.8289786500000015</v>
+        <v>0.9748358865578933</v>
       </c>
       <c r="G14">
-        <v>1.158546599999999</v>
+        <v>1.030430604947368</v>
       </c>
       <c r="H14">
-        <v>0.6692091899999988</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="I14">
-        <v>0.6454245799999989</v>
+        <v>0.9323770845263147</v>
       </c>
       <c r="J14">
-        <v>1.9813918</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="K14">
-        <v>1.9813918</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="L14">
-        <v>0.8289786500000015</v>
+        <v>0.9748358865578933</v>
       </c>
       <c r="M14">
-        <v>0.5239188100000006</v>
+        <v>0.9146777159484207</v>
       </c>
       <c r="N14">
-        <v>0.5239188100000006</v>
+        <v>0.9146777159484207</v>
       </c>
       <c r="O14">
-        <v>0.5644207333333334</v>
+        <v>0.9205775054743853</v>
       </c>
       <c r="P14">
-        <v>1.00974314</v>
+        <v>0.9991457664568423</v>
       </c>
       <c r="Q14">
-        <v>1.009743140000001</v>
+        <v>0.9991457664568423</v>
       </c>
       <c r="R14">
-        <v>1.252655305</v>
+        <v>1.041379791711053</v>
       </c>
       <c r="S14">
-        <v>1.252655305</v>
+        <v>1.041379791711053</v>
       </c>
       <c r="T14">
-        <v>0.917068298333333</v>
+        <v>0.9857742659733333</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.21885897</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="D15">
-        <v>3.9393531</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="E15">
-        <v>3.9393531</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="F15">
-        <v>0.44908907</v>
+        <v>0.9813402454322466</v>
       </c>
       <c r="G15">
-        <v>0.3808422</v>
+        <v>0.9814599085420863</v>
       </c>
       <c r="H15">
-        <v>0.054357122</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="I15">
-        <v>2.1879417</v>
+        <v>1.034077375012689</v>
       </c>
       <c r="J15">
-        <v>0.21885897</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="K15">
-        <v>0.21885897</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="L15">
-        <v>0.44908907</v>
+        <v>0.9813402454322466</v>
       </c>
       <c r="M15">
-        <v>2.194221085</v>
+        <v>1.033544113292296</v>
       </c>
       <c r="N15">
-        <v>2.194221085</v>
+        <v>1.033544113292296</v>
       </c>
       <c r="O15">
-        <v>2.192127956666667</v>
+        <v>1.033721867199094</v>
       </c>
       <c r="P15">
-        <v>1.535767046666667</v>
+        <v>1.016251470275561</v>
       </c>
       <c r="Q15">
-        <v>1.535767046666667</v>
+        <v>1.016251470275561</v>
       </c>
       <c r="R15">
-        <v>1.2065400275</v>
+        <v>1.007605148767194</v>
       </c>
       <c r="S15">
-        <v>1.2065400275</v>
+        <v>1.007605148767194</v>
       </c>
       <c r="T15">
-        <v>1.205073693666667</v>
+        <v>1.006393105487239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1453,22 +1459,22 @@
         <v>1.9813918</v>
       </c>
       <c r="D16">
-        <v>0.21885897</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="E16">
-        <v>0.21885897</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="F16">
-        <v>0.8289786500000002</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="G16">
-        <v>1.1585466</v>
+        <v>1.158546599999999</v>
       </c>
       <c r="H16">
-        <v>0.66920919</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="I16">
-        <v>0.6454245799999999</v>
+        <v>0.6454245799999989</v>
       </c>
       <c r="J16">
         <v>1.9813918</v>
@@ -1477,22 +1483,22 @@
         <v>1.9813918</v>
       </c>
       <c r="L16">
-        <v>0.8289786500000002</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="M16">
-        <v>0.5239188100000001</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="N16">
-        <v>0.5239188100000001</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="O16">
-        <v>0.5644207333333333</v>
+        <v>0.5644207333333334</v>
       </c>
       <c r="P16">
         <v>1.00974314</v>
       </c>
       <c r="Q16">
-        <v>1.00974314</v>
+        <v>1.009743140000001</v>
       </c>
       <c r="R16">
         <v>1.252655305</v>
@@ -1501,7 +1507,7 @@
         <v>1.252655305</v>
       </c>
       <c r="T16">
-        <v>0.9170682983333333</v>
+        <v>0.917068298333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.49191705</v>
+        <v>0.21885897</v>
       </c>
       <c r="D17">
-        <v>2.6705054</v>
+        <v>3.9393531</v>
       </c>
       <c r="E17">
-        <v>2.6705054</v>
+        <v>3.9393531</v>
       </c>
       <c r="F17">
-        <v>0.63251363</v>
+        <v>0.44908907</v>
       </c>
       <c r="G17">
-        <v>0.59323659</v>
+        <v>0.3808422</v>
       </c>
       <c r="H17">
-        <v>0.16635643</v>
+        <v>0.054357122</v>
       </c>
       <c r="I17">
-        <v>1.8564204</v>
+        <v>2.1879417</v>
       </c>
       <c r="J17">
-        <v>0.49191705</v>
+        <v>0.21885897</v>
       </c>
       <c r="K17">
-        <v>0.49191705</v>
+        <v>0.21885897</v>
       </c>
       <c r="L17">
-        <v>0.63251363</v>
+        <v>0.44908907</v>
       </c>
       <c r="M17">
-        <v>1.651509515</v>
+        <v>2.194221085</v>
       </c>
       <c r="N17">
-        <v>1.651509515</v>
+        <v>2.194221085</v>
       </c>
       <c r="O17">
-        <v>1.719813143333334</v>
+        <v>2.192127956666667</v>
       </c>
       <c r="P17">
-        <v>1.264978693333333</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="Q17">
-        <v>1.264978693333333</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="R17">
-        <v>1.0717132825</v>
+        <v>1.2065400275</v>
       </c>
       <c r="S17">
-        <v>1.0717132825</v>
+        <v>1.2065400275</v>
       </c>
       <c r="T17">
-        <v>1.068491583333333</v>
+        <v>1.205073693666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8575404645205478</v>
+        <v>1.9813918</v>
       </c>
       <c r="D18">
-        <v>1.026363887013699</v>
+        <v>0.21885897</v>
       </c>
       <c r="E18">
-        <v>1.026363887013699</v>
+        <v>0.21885897</v>
       </c>
       <c r="F18">
-        <v>1.090327362602739</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="G18">
-        <v>1.021017286027397</v>
+        <v>1.1585466</v>
       </c>
       <c r="H18">
-        <v>1.382853073068493</v>
+        <v>0.66920919</v>
       </c>
       <c r="I18">
-        <v>0.9034466282191781</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J18">
-        <v>0.8575404645205478</v>
+        <v>1.9813918</v>
       </c>
       <c r="K18">
-        <v>0.8575404645205478</v>
+        <v>1.9813918</v>
       </c>
       <c r="L18">
-        <v>1.090327362602739</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M18">
-        <v>1.058345624808219</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N18">
-        <v>1.058345624808219</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O18">
-        <v>1.006712625945205</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P18">
-        <v>0.9914105713789952</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q18">
-        <v>0.9914105713789952</v>
+        <v>1.00974314</v>
       </c>
       <c r="R18">
-        <v>0.9579430446643833</v>
+        <v>1.252655305</v>
       </c>
       <c r="S18">
-        <v>0.9579430446643833</v>
+        <v>1.252655305</v>
       </c>
       <c r="T18">
-        <v>1.046924783575342</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.038299715263158</v>
+        <v>0.49191705</v>
       </c>
       <c r="D19">
-        <v>1.772162625263158</v>
+        <v>2.6705054</v>
       </c>
       <c r="E19">
-        <v>1.772162625263158</v>
+        <v>2.6705054</v>
       </c>
       <c r="F19">
-        <v>0.7061252994736843</v>
+        <v>0.63251363</v>
       </c>
       <c r="G19">
-        <v>0.8023913536842106</v>
+        <v>0.59323659</v>
       </c>
       <c r="H19">
-        <v>0.3509733176842105</v>
+        <v>0.16635643</v>
       </c>
       <c r="I19">
-        <v>1.409723701052632</v>
+        <v>1.8564204</v>
       </c>
       <c r="J19">
-        <v>1.038299715263158</v>
+        <v>0.49191705</v>
       </c>
       <c r="K19">
-        <v>1.038299715263158</v>
+        <v>0.49191705</v>
       </c>
       <c r="L19">
-        <v>0.7061252994736843</v>
+        <v>0.63251363</v>
       </c>
       <c r="M19">
-        <v>1.239143962368421</v>
+        <v>1.651509515</v>
       </c>
       <c r="N19">
-        <v>1.239143962368421</v>
+        <v>1.651509515</v>
       </c>
       <c r="O19">
-        <v>1.296003875263158</v>
+        <v>1.719813143333334</v>
       </c>
       <c r="P19">
-        <v>1.17219588</v>
+        <v>1.264978693333333</v>
       </c>
       <c r="Q19">
-        <v>1.17219588</v>
+        <v>1.264978693333333</v>
       </c>
       <c r="R19">
-        <v>1.13872183881579</v>
+        <v>1.0717132825</v>
       </c>
       <c r="S19">
-        <v>1.13872183881579</v>
+        <v>1.0717132825</v>
       </c>
       <c r="T19">
-        <v>1.013279335403509</v>
+        <v>1.068491583333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8787117957894734</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="D20">
-        <v>1.043442563052632</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="E20">
-        <v>1.043442563052632</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="F20">
-        <v>1.075012418947368</v>
+        <v>1.090327362602739</v>
       </c>
       <c r="G20">
-        <v>1.016213122105263</v>
+        <v>1.021017286027397</v>
       </c>
       <c r="H20">
-        <v>1.346592761</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="I20">
-        <v>0.9135578252631577</v>
+        <v>0.9034466282191781</v>
       </c>
       <c r="J20">
-        <v>0.8787117957894734</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="K20">
-        <v>0.8787117957894734</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="L20">
-        <v>1.075012418947368</v>
+        <v>1.090327362602739</v>
       </c>
       <c r="M20">
-        <v>1.059227491</v>
+        <v>1.058345624808219</v>
       </c>
       <c r="N20">
-        <v>1.059227491</v>
+        <v>1.058345624808219</v>
       </c>
       <c r="O20">
-        <v>1.010670935754386</v>
+        <v>1.006712625945205</v>
       </c>
       <c r="P20">
-        <v>0.9990555925964912</v>
+        <v>0.9914105713789952</v>
       </c>
       <c r="Q20">
-        <v>0.9990555925964912</v>
+        <v>0.9914105713789952</v>
       </c>
       <c r="R20">
-        <v>0.9689696433947368</v>
+        <v>0.9579430446643833</v>
       </c>
       <c r="S20">
-        <v>0.9689696433947368</v>
+        <v>0.9579430446643833</v>
       </c>
       <c r="T20">
-        <v>1.045588414359649</v>
+        <v>1.046924783575342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4955235286572381</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="D21">
-        <v>2.660839704405878</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="E21">
-        <v>2.660839704405878</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="F21">
-        <v>0.6548451648534876</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="G21">
-        <v>0.6083880670441053</v>
+        <v>0.8023913536842106</v>
       </c>
       <c r="H21">
-        <v>0.2116844377548642</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="I21">
-        <v>1.818480992269227</v>
+        <v>1.409723701052632</v>
       </c>
       <c r="J21">
-        <v>0.4955235286572381</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="K21">
-        <v>0.4955235286572381</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="L21">
-        <v>0.6548451648534876</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="M21">
-        <v>1.657842434629683</v>
+        <v>1.239143962368421</v>
       </c>
       <c r="N21">
-        <v>1.657842434629683</v>
+        <v>1.239143962368421</v>
       </c>
       <c r="O21">
-        <v>1.711388620509531</v>
+        <v>1.296003875263158</v>
       </c>
       <c r="P21">
-        <v>1.270402799305534</v>
+        <v>1.17219588</v>
       </c>
       <c r="Q21">
-        <v>1.270402799305535</v>
+        <v>1.17219588</v>
       </c>
       <c r="R21">
-        <v>1.07668298164346</v>
+        <v>1.13872183881579</v>
       </c>
       <c r="S21">
-        <v>1.07668298164346</v>
+        <v>1.13872183881579</v>
       </c>
       <c r="T21">
-        <v>1.0749603158308</v>
+        <v>1.013279335403509</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9281320838650573</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="D22">
-        <v>1.268221409307049</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="E22">
-        <v>1.268221409307049</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="F22">
-        <v>0.9088917048708907</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="G22">
-        <v>0.9144646330804617</v>
+        <v>1.016213122105263</v>
       </c>
       <c r="H22">
-        <v>0.6337144484550302</v>
+        <v>1.346592761</v>
       </c>
       <c r="I22">
-        <v>1.224819306146259</v>
+        <v>0.9135578252631577</v>
       </c>
       <c r="J22">
-        <v>0.9281320838650573</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="K22">
-        <v>0.9281320838650573</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="L22">
-        <v>0.9088917048708907</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="M22">
-        <v>1.08855655708897</v>
+        <v>1.059227491</v>
       </c>
       <c r="N22">
-        <v>1.08855655708897</v>
+        <v>1.059227491</v>
       </c>
       <c r="O22">
-        <v>1.1339774734414</v>
+        <v>1.010670935754386</v>
       </c>
       <c r="P22">
-        <v>1.035081732680999</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="Q22">
-        <v>1.035081732680999</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="R22">
-        <v>1.008344320477014</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="S22">
-        <v>1.008344320477014</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="T22">
-        <v>0.979707264287458</v>
+        <v>1.045588414359649</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9422085480144056</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="D23">
-        <v>0.9318562016855172</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="E23">
-        <v>0.9318562016855172</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="F23">
-        <v>1.039747067715987</v>
+        <v>0.6548451648534876</v>
       </c>
       <c r="G23">
-        <v>1.011593383523964</v>
+        <v>0.6083880670441053</v>
       </c>
       <c r="H23">
-        <v>1.012390764726486</v>
+        <v>0.2116844377548642</v>
       </c>
       <c r="I23">
-        <v>0.9974542226888118</v>
+        <v>1.818480992269227</v>
       </c>
       <c r="J23">
-        <v>0.9422085480144056</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="K23">
-        <v>0.9422085480144056</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="L23">
-        <v>1.039747067715987</v>
+        <v>0.6548451648534876</v>
       </c>
       <c r="M23">
-        <v>0.9858016347007522</v>
+        <v>1.657842434629683</v>
       </c>
       <c r="N23">
-        <v>0.9858016347007522</v>
+        <v>1.657842434629683</v>
       </c>
       <c r="O23">
-        <v>0.9896858306967721</v>
+        <v>1.711388620509531</v>
       </c>
       <c r="P23">
-        <v>0.9712706058053033</v>
+        <v>1.270402799305534</v>
       </c>
       <c r="Q23">
-        <v>0.9712706058053033</v>
+        <v>1.270402799305535</v>
       </c>
       <c r="R23">
-        <v>0.9640050913575788</v>
+        <v>1.07668298164346</v>
       </c>
       <c r="S23">
-        <v>0.9640050913575788</v>
+        <v>1.07668298164346</v>
       </c>
       <c r="T23">
-        <v>0.989208364725862</v>
+        <v>1.0749603158308</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.059548244205389</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="D24">
-        <v>1.067964252920152</v>
+        <v>1.268221409307049</v>
       </c>
       <c r="E24">
-        <v>1.067964252920152</v>
+        <v>1.268221409307049</v>
       </c>
       <c r="F24">
-        <v>0.9601667937851358</v>
+        <v>0.9088917048708907</v>
       </c>
       <c r="G24">
-        <v>0.9890386921676251</v>
+        <v>0.9144646330804617</v>
       </c>
       <c r="H24">
-        <v>1.02319818206806</v>
+        <v>0.6337144484550302</v>
       </c>
       <c r="I24">
-        <v>0.9928450615510304</v>
+        <v>1.224819306146259</v>
       </c>
       <c r="J24">
-        <v>1.059548244205389</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="K24">
-        <v>1.059548244205389</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="L24">
-        <v>0.9601667937851358</v>
+        <v>0.9088917048708907</v>
       </c>
       <c r="M24">
-        <v>1.014065523352644</v>
+        <v>1.08855655708897</v>
       </c>
       <c r="N24">
-        <v>1.014065523352644</v>
+        <v>1.08855655708897</v>
       </c>
       <c r="O24">
-        <v>1.00699203608544</v>
+        <v>1.1339774734414</v>
       </c>
       <c r="P24">
-        <v>1.029226430303559</v>
+        <v>1.035081732680999</v>
       </c>
       <c r="Q24">
-        <v>1.029226430303559</v>
+        <v>1.035081732680999</v>
       </c>
       <c r="R24">
-        <v>1.036806883779016</v>
+        <v>1.008344320477014</v>
       </c>
       <c r="S24">
-        <v>1.036806883779016</v>
+        <v>1.008344320477014</v>
       </c>
       <c r="T24">
-        <v>1.015460204449566</v>
+        <v>0.979707264287458</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8731923049019394</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="D25">
-        <v>0.1398369913072594</v>
+        <v>0.9318562016855172</v>
       </c>
       <c r="E25">
-        <v>0.1398369913072594</v>
+        <v>0.9318562016855172</v>
       </c>
       <c r="F25">
-        <v>1.411107354708371</v>
+        <v>1.039747067715987</v>
       </c>
       <c r="G25">
-        <v>1.254853269454525</v>
+        <v>1.011593383523964</v>
       </c>
       <c r="H25">
-        <v>2.273757410017424</v>
+        <v>1.012390764726486</v>
       </c>
       <c r="I25">
-        <v>0.373941515505374</v>
+        <v>0.9974542226888118</v>
       </c>
       <c r="J25">
-        <v>0.8731923049019394</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="K25">
-        <v>0.8731923049019394</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="L25">
-        <v>1.411107354708371</v>
+        <v>1.039747067715987</v>
       </c>
       <c r="M25">
-        <v>0.7754721730078153</v>
+        <v>0.9858016347007522</v>
       </c>
       <c r="N25">
-        <v>0.7754721730078153</v>
+        <v>0.9858016347007522</v>
       </c>
       <c r="O25">
-        <v>0.6416286205070015</v>
+        <v>0.9896858306967721</v>
       </c>
       <c r="P25">
-        <v>0.8080455503058568</v>
+        <v>0.9712706058053033</v>
       </c>
       <c r="Q25">
-        <v>0.8080455503058568</v>
+        <v>0.9712706058053033</v>
       </c>
       <c r="R25">
-        <v>0.8243322389548775</v>
+        <v>0.9640050913575788</v>
       </c>
       <c r="S25">
-        <v>0.8243322389548775</v>
+        <v>0.9640050913575788</v>
       </c>
       <c r="T25">
-        <v>1.054448140982482</v>
+        <v>0.989208364725862</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.236171008120947</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="D26">
-        <v>0.5397908180613789</v>
+        <v>1.067964252920152</v>
       </c>
       <c r="E26">
-        <v>0.5397908180613789</v>
+        <v>1.067964252920152</v>
       </c>
       <c r="F26">
-        <v>1.04786352455284</v>
+        <v>0.9601667937851358</v>
       </c>
       <c r="G26">
-        <v>1.102555332185788</v>
+        <v>0.9890386921676251</v>
       </c>
       <c r="H26">
-        <v>0.9754516980295286</v>
+        <v>1.02319818206806</v>
       </c>
       <c r="I26">
-        <v>0.8176698907503707</v>
+        <v>0.9928450615510304</v>
       </c>
       <c r="J26">
-        <v>1.236171008120947</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="K26">
-        <v>1.236171008120947</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="L26">
-        <v>1.04786352455284</v>
+        <v>0.9601667937851358</v>
       </c>
       <c r="M26">
-        <v>0.7938271713071092</v>
+        <v>1.014065523352644</v>
       </c>
       <c r="N26">
-        <v>0.7938271713071092</v>
+        <v>1.014065523352644</v>
       </c>
       <c r="O26">
-        <v>0.8017747444548631</v>
+        <v>1.00699203608544</v>
       </c>
       <c r="P26">
-        <v>0.9412751169117217</v>
+        <v>1.029226430303559</v>
       </c>
       <c r="Q26">
-        <v>0.9412751169117217</v>
+        <v>1.029226430303559</v>
       </c>
       <c r="R26">
-        <v>1.014999089714028</v>
+        <v>1.036806883779016</v>
       </c>
       <c r="S26">
-        <v>1.014999089714028</v>
+        <v>1.036806883779016</v>
       </c>
       <c r="T26">
-        <v>0.9532503786168087</v>
+        <v>1.015460204449566</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9844722257665111</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="D27">
-        <v>0.9594025325632199</v>
+        <v>0.1398369913072594</v>
       </c>
       <c r="E27">
-        <v>0.9594025325632199</v>
+        <v>0.1398369913072594</v>
       </c>
       <c r="F27">
-        <v>1.019425321777766</v>
+        <v>1.411107354708371</v>
       </c>
       <c r="G27">
-        <v>1.008794971130202</v>
+        <v>1.254853269454525</v>
       </c>
       <c r="H27">
-        <v>1.035592815127624</v>
+        <v>2.273757410017424</v>
       </c>
       <c r="I27">
-        <v>0.9836640882516778</v>
+        <v>0.373941515505374</v>
       </c>
       <c r="J27">
-        <v>0.9844722257665111</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="K27">
-        <v>0.9844722257665111</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="L27">
-        <v>1.019425321777766</v>
+        <v>1.411107354708371</v>
       </c>
       <c r="M27">
-        <v>0.9894139271704929</v>
+        <v>0.7754721730078153</v>
       </c>
       <c r="N27">
-        <v>0.9894139271704929</v>
+        <v>0.7754721730078153</v>
       </c>
       <c r="O27">
-        <v>0.9874973141975545</v>
+        <v>0.6416286205070015</v>
       </c>
       <c r="P27">
-        <v>0.9877666933691657</v>
+        <v>0.8080455503058568</v>
       </c>
       <c r="Q27">
-        <v>0.9877666933691657</v>
+        <v>0.8080455503058568</v>
       </c>
       <c r="R27">
-        <v>0.986943076468502</v>
+        <v>0.8243322389548775</v>
       </c>
       <c r="S27">
-        <v>0.986943076468502</v>
+        <v>0.8243322389548775</v>
       </c>
       <c r="T27">
-        <v>0.9985586591028334</v>
+        <v>1.054448140982482</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9132169137916855</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="D28">
-        <v>1.076029646955971</v>
+        <v>0.5397908180613789</v>
       </c>
       <c r="E28">
-        <v>1.076029646955971</v>
+        <v>0.5397908180613789</v>
       </c>
       <c r="F28">
-        <v>1.020896776568086</v>
+        <v>1.04786352455284</v>
       </c>
       <c r="G28">
-        <v>0.9881194216601324</v>
+        <v>1.102555332185788</v>
       </c>
       <c r="H28">
-        <v>1.056206072790698</v>
+        <v>0.9754516980295286</v>
       </c>
       <c r="I28">
-        <v>1.019242279556388</v>
+        <v>0.8176698907503707</v>
       </c>
       <c r="J28">
-        <v>0.9132169137916855</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="K28">
-        <v>0.9132169137916855</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="L28">
-        <v>1.020896776568086</v>
+        <v>1.04786352455284</v>
       </c>
       <c r="M28">
-        <v>1.048463211762028</v>
+        <v>0.7938271713071092</v>
       </c>
       <c r="N28">
-        <v>1.048463211762028</v>
+        <v>0.7938271713071092</v>
       </c>
       <c r="O28">
-        <v>1.038722901026815</v>
+        <v>0.8017747444548631</v>
       </c>
       <c r="P28">
-        <v>1.003381112438581</v>
+        <v>0.9412751169117217</v>
       </c>
       <c r="Q28">
-        <v>1.003381112438581</v>
+        <v>0.9412751169117217</v>
       </c>
       <c r="R28">
-        <v>0.980840062776857</v>
+        <v>1.014999089714028</v>
       </c>
       <c r="S28">
-        <v>0.980840062776857</v>
+        <v>1.014999089714028</v>
       </c>
       <c r="T28">
-        <v>1.012285185220493</v>
+        <v>0.9532503786168087</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="D29">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="E29">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="F29">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="G29">
+        <v>1.008794971130202</v>
+      </c>
+      <c r="H29">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="I29">
+        <v>0.9836640882516778</v>
+      </c>
+      <c r="J29">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="K29">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="L29">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="M29">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="N29">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="O29">
+        <v>0.9874973141975545</v>
+      </c>
+      <c r="P29">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="Q29">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="R29">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="S29">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="T29">
+        <v>0.9985586591028334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="D30">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="E30">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="F30">
+        <v>1.020896776568086</v>
+      </c>
+      <c r="G30">
+        <v>0.9881194216601324</v>
+      </c>
+      <c r="H30">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="I30">
+        <v>1.019242279556388</v>
+      </c>
+      <c r="J30">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="K30">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="L30">
+        <v>1.020896776568086</v>
+      </c>
+      <c r="M30">
+        <v>1.048463211762028</v>
+      </c>
+      <c r="N30">
+        <v>1.048463211762028</v>
+      </c>
+      <c r="O30">
+        <v>1.038722901026815</v>
+      </c>
+      <c r="P30">
+        <v>1.003381112438581</v>
+      </c>
+      <c r="Q30">
+        <v>1.003381112438581</v>
+      </c>
+      <c r="R30">
+        <v>0.980840062776857</v>
+      </c>
+      <c r="S30">
+        <v>0.980840062776857</v>
+      </c>
+      <c r="T30">
+        <v>1.012285185220493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8727369923437135</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.309097447581508</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.309097447581508</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9726590330984959</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.94156790734806</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.085437734799395</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.0792682472701</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.8727369923437135</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.8727369923437135</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9726590330984959</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.140878240340002</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.140878240340002</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.120341575983368</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.051497824341239</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.051497824341239</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.006807616341858</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.006807616341858</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.043461227073545</v>
       </c>
     </row>
